--- a/Threagile_ChemoDemo/risks.xlsx
+++ b/Threagile_ChemoDemo/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="650">
   <si>
     <t>Severity</t>
   </si>
@@ -676,6 +676,12 @@
     <t>dos-risky-access-across-trust-boundary@DC1@DC2@DC2&gt;dc2-to-dc1</t>
   </si>
   <si>
+    <t>Denial-of-Service risky access of DC2 by R2 via R2-to-DC2-NTP</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@DC2@R2@R2&gt;r2-to-dc2-ntp</t>
+  </si>
+  <si>
     <t>FW2</t>
   </si>
   <si>
@@ -734,6 +740,18 @@
   </si>
   <si>
     <t>dos-risky-access-across-trust-boundary@FW4@S4@S4&gt;s4-to-fw4</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of OS1 by R2 via R2-to-OS1-Admin</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@OS1@R2@R2&gt;r2-to-os1-admin</t>
+  </si>
+  <si>
+    <t>Denial-of-Service risky access of OS1 by R2 via R2-to-OS1</t>
+  </si>
+  <si>
+    <t>dos-risky-access-across-trust-boundary@OS1@R2@R2&gt;r2-to-os1</t>
   </si>
   <si>
     <t>Incomplete Model</t>
@@ -5372,16 +5390,16 @@
         <v>215</v>
       </c>
       <c r="H54" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J54" s="18">
+        <v>40</v>
+      </c>
+      <c r="K54" s="19" t="s">
         <v>220</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="J54" s="18">
-        <v>4</v>
-      </c>
-      <c r="K54" s="19" t="s">
-        <v>222</v>
       </c>
       <c r="L54" s="22" t="s">
         <v>217</v>
@@ -5393,7 +5411,7 @@
         <v>32</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P54" s="10" t="s">
         <v>34</v>
@@ -5426,16 +5444,16 @@
         <v>215</v>
       </c>
       <c r="H55" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="J55" s="18">
+        <v>4</v>
+      </c>
+      <c r="K55" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="J55" s="18">
-        <v>6</v>
-      </c>
-      <c r="K55" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="L55" s="22" t="s">
         <v>217</v>
@@ -5447,7 +5465,7 @@
         <v>32</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P55" s="10" t="s">
         <v>34</v>
@@ -5480,16 +5498,16 @@
         <v>215</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J56" s="18">
         <v>6</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L56" s="22" t="s">
         <v>217</v>
@@ -5501,7 +5519,7 @@
         <v>32</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>34</v>
@@ -5534,16 +5552,16 @@
         <v>215</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J57" s="18">
         <v>6</v>
       </c>
       <c r="K57" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L57" s="22" t="s">
         <v>217</v>
@@ -5555,7 +5573,7 @@
         <v>32</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>34</v>
@@ -5588,13 +5606,13 @@
         <v>215</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="J58" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K58" s="19" t="s">
         <v>234</v>
@@ -5645,7 +5663,7 @@
         <v>60</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="J59" s="18">
         <v>10</v>
@@ -5699,7 +5717,7 @@
         <v>60</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="J60" s="18">
         <v>10</v>
@@ -5738,40 +5756,40 @@
         <v>139</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="G61" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J61" s="18">
+        <v>10</v>
+      </c>
+      <c r="K61" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="L61" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M61" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="N61" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" s="20" t="s">
         <v>241</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J61" s="18">
-        <v>0</v>
-      </c>
-      <c r="K61" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="L61" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M61" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N61" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O61" s="20" t="s">
-        <v>246</v>
       </c>
       <c r="P61" s="10" t="s">
         <v>34</v>
@@ -5792,40 +5810,40 @@
         <v>139</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>247</v>
+        <v>74</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>248</v>
+        <v>75</v>
       </c>
       <c r="J62" s="18">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="M62" s="22" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="N62" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O62" s="20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="P62" s="10" t="s">
         <v>34</v>
@@ -5846,40 +5864,40 @@
         <v>139</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="J63" s="18">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="K63" s="19" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="M63" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="N63" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O63" s="20" t="s">
         <v>245</v>
-      </c>
-      <c r="N63" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O63" s="20" t="s">
-        <v>252</v>
       </c>
       <c r="P63" s="10" t="s">
         <v>34</v>
@@ -5909,31 +5927,31 @@
         <v>166</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J64" s="18">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N64" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O64" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P64" s="10" t="s">
         <v>34</v>
@@ -5963,31 +5981,31 @@
         <v>166</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>67</v>
+        <v>254</v>
       </c>
       <c r="J65" s="18">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K65" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="L65" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="M65" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N65" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O65" s="20" t="s">
         <v>256</v>
-      </c>
-      <c r="L65" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M65" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N65" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O65" s="20" t="s">
-        <v>257</v>
       </c>
       <c r="P65" s="10" t="s">
         <v>34</v>
@@ -6017,31 +6035,31 @@
         <v>166</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H66" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J66" s="18">
+        <v>34</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="L66" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="M66" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N66" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" s="20" t="s">
         <v>258</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J66" s="18">
-        <v>3</v>
-      </c>
-      <c r="K66" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="L66" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M66" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N66" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O66" s="20" t="s">
-        <v>261</v>
       </c>
       <c r="P66" s="10" t="s">
         <v>34</v>
@@ -6071,31 +6089,31 @@
         <v>166</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>262</v>
+        <v>66</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J67" s="18">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M67" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N67" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O67" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P67" s="10" t="s">
         <v>34</v>
@@ -6125,31 +6143,31 @@
         <v>166</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="J68" s="18">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N68" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P68" s="10" t="s">
         <v>34</v>
@@ -6179,31 +6197,31 @@
         <v>166</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J69" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N69" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P69" s="10" t="s">
         <v>34</v>
@@ -6233,31 +6251,31 @@
         <v>166</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J70" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N70" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P70" s="10" t="s">
         <v>34</v>
@@ -6287,31 +6305,31 @@
         <v>166</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J71" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N71" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P71" s="10" t="s">
         <v>34</v>
@@ -6341,31 +6359,31 @@
         <v>166</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J72" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N72" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P72" s="10" t="s">
         <v>34</v>
@@ -6395,31 +6413,31 @@
         <v>166</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J73" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L73" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N73" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O73" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P73" s="10" t="s">
         <v>34</v>
@@ -6449,31 +6467,31 @@
         <v>166</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J74" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N74" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P74" s="10" t="s">
         <v>34</v>
@@ -6503,31 +6521,31 @@
         <v>166</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>60</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J75" s="18">
         <v>10</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M75" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N75" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P75" s="10" t="s">
         <v>34</v>
@@ -6557,31 +6575,31 @@
         <v>166</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J76" s="18">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N76" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P76" s="10" t="s">
         <v>34</v>
@@ -6611,31 +6629,31 @@
         <v>166</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>293</v>
+        <v>60</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J77" s="18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M77" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N77" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P77" s="10" t="s">
         <v>34</v>
@@ -6665,31 +6683,31 @@
         <v>166</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="J78" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M78" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N78" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P78" s="10" t="s">
         <v>34</v>
@@ -6719,31 +6737,31 @@
         <v>166</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J79" s="18">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M79" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N79" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P79" s="10" t="s">
         <v>34</v>
@@ -6773,31 +6791,31 @@
         <v>166</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>112</v>
+        <v>299</v>
       </c>
       <c r="I80" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="J80" s="18">
+        <v>2</v>
+      </c>
+      <c r="K80" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="L80" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="M80" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N80" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O80" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="J80" s="18">
-        <v>8</v>
-      </c>
-      <c r="K80" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="L80" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M80" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N80" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O80" s="20" t="s">
-        <v>304</v>
       </c>
       <c r="P80" s="10" t="s">
         <v>34</v>
@@ -6827,31 +6845,31 @@
         <v>166</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J81" s="18">
         <v>8</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M81" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N81" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P81" s="10" t="s">
         <v>34</v>
@@ -6881,31 +6899,31 @@
         <v>166</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="J82" s="18">
         <v>8</v>
       </c>
       <c r="K82" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="L82" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="M82" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N82" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O82" s="20" t="s">
         <v>307</v>
-      </c>
-      <c r="L82" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M82" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N82" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O82" s="20" t="s">
-        <v>308</v>
       </c>
       <c r="P82" s="10" t="s">
         <v>34</v>
@@ -6935,31 +6953,31 @@
         <v>166</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J83" s="18">
         <v>8</v>
       </c>
       <c r="K83" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="L83" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="M83" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N83" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O83" s="20" t="s">
         <v>310</v>
-      </c>
-      <c r="L83" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M83" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N83" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O83" s="20" t="s">
-        <v>311</v>
       </c>
       <c r="P83" s="10" t="s">
         <v>34</v>
@@ -6989,31 +7007,31 @@
         <v>166</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="J84" s="18">
         <v>8</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M84" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N84" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O84" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P84" s="10" t="s">
         <v>34</v>
@@ -7043,31 +7061,31 @@
         <v>166</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="J85" s="18">
         <v>8</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M85" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N85" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O85" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P85" s="10" t="s">
         <v>34</v>
@@ -7097,31 +7115,31 @@
         <v>166</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>318</v>
+        <v>112</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J86" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M86" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N86" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O86" s="20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P86" s="10" t="s">
         <v>34</v>
@@ -7151,31 +7169,31 @@
         <v>166</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H87" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I87" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="I87" s="9" t="s">
-        <v>322</v>
-      </c>
       <c r="J87" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M87" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N87" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O87" s="20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P87" s="10" t="s">
         <v>34</v>
@@ -7205,31 +7223,31 @@
         <v>166</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="J88" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N88" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O88" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P88" s="10" t="s">
         <v>34</v>
@@ -7259,31 +7277,31 @@
         <v>166</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H89" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="I89" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="I89" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="J89" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M89" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N89" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P89" s="10" t="s">
         <v>34</v>
@@ -7313,31 +7331,31 @@
         <v>166</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>35</v>
+        <v>324</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="J90" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K90" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="L90" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="M90" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N90" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O90" s="20" t="s">
         <v>330</v>
-      </c>
-      <c r="L90" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M90" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N90" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O90" s="20" t="s">
-        <v>331</v>
       </c>
       <c r="P90" s="10" t="s">
         <v>34</v>
@@ -7367,31 +7385,31 @@
         <v>166</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="I91" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J91" s="18">
+        <v>6</v>
+      </c>
+      <c r="K91" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="J91" s="18">
-        <v>1</v>
-      </c>
-      <c r="K91" s="19" t="s">
+      <c r="L91" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="M91" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N91" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O91" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="L91" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M91" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N91" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O91" s="20" t="s">
-        <v>334</v>
       </c>
       <c r="P91" s="10" t="s">
         <v>34</v>
@@ -7421,31 +7439,31 @@
         <v>166</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="I92" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J92" s="18">
+        <v>6</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="L92" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="M92" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N92" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O92" s="20" t="s">
         <v>335</v>
-      </c>
-      <c r="J92" s="18">
-        <v>1</v>
-      </c>
-      <c r="K92" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="L92" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M92" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N92" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O92" s="20" t="s">
-        <v>337</v>
       </c>
       <c r="P92" s="10" t="s">
         <v>34</v>
@@ -7475,31 +7493,31 @@
         <v>166</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>338</v>
+        <v>223</v>
       </c>
       <c r="J93" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K93" s="19" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M93" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N93" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O93" s="20" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P93" s="10" t="s">
         <v>34</v>
@@ -7529,31 +7547,31 @@
         <v>166</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>89</v>
+        <v>338</v>
       </c>
       <c r="J94" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M94" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N94" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O94" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P94" s="10" t="s">
         <v>34</v>
@@ -7583,31 +7601,31 @@
         <v>166</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>92</v>
+        <v>341</v>
       </c>
       <c r="J95" s="18">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K95" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="L95" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="M95" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N95" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O95" s="20" t="s">
         <v>343</v>
-      </c>
-      <c r="L95" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M95" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N95" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O95" s="20" t="s">
-        <v>344</v>
       </c>
       <c r="P95" s="10" t="s">
         <v>34</v>
@@ -7637,25 +7655,25 @@
         <v>166</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>95</v>
+        <v>344</v>
       </c>
       <c r="J96" s="18">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K96" s="19" t="s">
         <v>345</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M96" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N96" s="22" t="s">
         <v>32</v>
@@ -7691,25 +7709,25 @@
         <v>166</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J97" s="18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K97" s="19" t="s">
         <v>347</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M97" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N97" s="22" t="s">
         <v>32</v>
@@ -7745,25 +7763,25 @@
         <v>166</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="J98" s="18">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K98" s="19" t="s">
         <v>349</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M98" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N98" s="22" t="s">
         <v>32</v>
@@ -7799,25 +7817,25 @@
         <v>166</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="J99" s="18">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K99" s="19" t="s">
         <v>351</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M99" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N99" s="22" t="s">
         <v>32</v>
@@ -7853,31 +7871,31 @@
         <v>166</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>353</v>
+        <v>98</v>
       </c>
       <c r="J100" s="18">
         <v>14</v>
       </c>
       <c r="K100" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="L100" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="M100" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N100" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O100" s="20" t="s">
         <v>354</v>
-      </c>
-      <c r="L100" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M100" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N100" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O100" s="20" t="s">
-        <v>355</v>
       </c>
       <c r="P100" s="10" t="s">
         <v>34</v>
@@ -7907,31 +7925,31 @@
         <v>166</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="J101" s="18">
         <v>14</v>
       </c>
       <c r="K101" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="L101" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="M101" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N101" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O101" s="20" t="s">
         <v>356</v>
-      </c>
-      <c r="L101" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M101" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N101" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O101" s="20" t="s">
-        <v>357</v>
       </c>
       <c r="P101" s="10" t="s">
         <v>34</v>
@@ -7961,31 +7979,31 @@
         <v>166</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>358</v>
+        <v>144</v>
       </c>
       <c r="J102" s="18">
         <v>14</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L102" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M102" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N102" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O102" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P102" s="10" t="s">
         <v>34</v>
@@ -8015,31 +8033,31 @@
         <v>166</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="J103" s="18">
         <v>14</v>
       </c>
       <c r="K103" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="L103" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="M103" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N103" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O103" s="20" t="s">
         <v>361</v>
-      </c>
-      <c r="L103" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M103" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N103" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O103" s="20" t="s">
-        <v>362</v>
       </c>
       <c r="P103" s="10" t="s">
         <v>34</v>
@@ -8069,31 +8087,31 @@
         <v>166</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="J104" s="18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K104" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="L104" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="M104" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N104" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O104" s="20" t="s">
         <v>363</v>
-      </c>
-      <c r="L104" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="M104" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="N104" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O104" s="20" t="s">
-        <v>364</v>
       </c>
       <c r="P104" s="10" t="s">
         <v>34</v>
@@ -8123,25 +8141,25 @@
         <v>166</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>129</v>
+        <v>364</v>
       </c>
       <c r="J105" s="18">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="K105" s="19" t="s">
         <v>365</v>
       </c>
       <c r="L105" s="22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M105" s="22" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N105" s="22" t="s">
         <v>32</v>
@@ -8168,40 +8186,40 @@
         <v>139</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F106" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J106" s="18">
+        <v>14</v>
+      </c>
+      <c r="K106" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="L106" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="M106" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="N106" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O106" s="20" t="s">
         <v>368</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="J106" s="18">
-        <v>38</v>
-      </c>
-      <c r="K106" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="L106" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="M106" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="N106" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O106" s="20" t="s">
-        <v>373</v>
       </c>
       <c r="P106" s="10" t="s">
         <v>34</v>
@@ -8222,40 +8240,40 @@
         <v>139</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>367</v>
+        <v>166</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>368</v>
+        <v>246</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="J107" s="18">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L107" s="22" t="s">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="M107" s="22" t="s">
-        <v>372</v>
+        <v>251</v>
       </c>
       <c r="N107" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O107" s="20" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="P107" s="10" t="s">
         <v>34</v>
@@ -8276,40 +8294,40 @@
         <v>139</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>376</v>
+        <v>166</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>377</v>
+        <v>246</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="J108" s="18">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="L108" s="22" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="M108" s="22" t="s">
-        <v>379</v>
+        <v>251</v>
       </c>
       <c r="N108" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O108" s="20" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="P108" s="10" t="s">
         <v>34</v>
@@ -8336,34 +8354,34 @@
         <v>57</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>166</v>
+        <v>373</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>242</v>
+        <v>375</v>
       </c>
       <c r="J109" s="18">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K109" s="19" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L109" s="22" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M109" s="22" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="N109" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O109" s="20" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P109" s="10" t="s">
         <v>34</v>
@@ -8390,34 +8408,34 @@
         <v>57</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>166</v>
+        <v>373</v>
       </c>
       <c r="G110" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J110" s="18">
+        <v>38</v>
+      </c>
+      <c r="K110" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="L110" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="M110" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="N110" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O110" s="20" t="s">
         <v>381</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="J110" s="18">
-        <v>0</v>
-      </c>
-      <c r="K110" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="L110" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="M110" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="N110" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O110" s="20" t="s">
-        <v>387</v>
       </c>
       <c r="P110" s="10" t="s">
         <v>34</v>
@@ -8438,40 +8456,40 @@
         <v>139</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>166</v>
+        <v>382</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="J111" s="18">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K111" s="19" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L111" s="22" t="s">
-        <v>383</v>
+        <v>155</v>
       </c>
       <c r="M111" s="22" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N111" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P111" s="10" t="s">
         <v>34</v>
@@ -8501,25 +8519,25 @@
         <v>166</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J112" s="18">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K112" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="L112" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="M112" s="22" t="s">
         <v>390</v>
-      </c>
-      <c r="L112" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="M112" s="22" t="s">
-        <v>384</v>
       </c>
       <c r="N112" s="22" t="s">
         <v>32</v>
@@ -8555,25 +8573,25 @@
         <v>166</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>67</v>
+        <v>254</v>
       </c>
       <c r="J113" s="18">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K113" s="19" t="s">
         <v>392</v>
       </c>
       <c r="L113" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M113" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N113" s="22" t="s">
         <v>32</v>
@@ -8609,25 +8627,25 @@
         <v>166</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>259</v>
+        <v>61</v>
       </c>
       <c r="J114" s="18">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="K114" s="19" t="s">
         <v>394</v>
       </c>
       <c r="L114" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M114" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N114" s="22" t="s">
         <v>32</v>
@@ -8663,25 +8681,25 @@
         <v>166</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>262</v>
+        <v>66</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J115" s="18">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="K115" s="19" t="s">
         <v>396</v>
       </c>
       <c r="L115" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M115" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N115" s="22" t="s">
         <v>32</v>
@@ -8717,25 +8735,25 @@
         <v>166</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="J116" s="18">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="K116" s="19" t="s">
         <v>398</v>
       </c>
       <c r="L116" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M116" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N116" s="22" t="s">
         <v>32</v>
@@ -8771,31 +8789,31 @@
         <v>166</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="I117" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="J117" s="18">
+        <v>3</v>
+      </c>
+      <c r="K117" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="J117" s="18">
-        <v>6</v>
-      </c>
-      <c r="K117" s="19" t="s">
+      <c r="L117" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="M117" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="N117" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O117" s="20" t="s">
         <v>401</v>
-      </c>
-      <c r="L117" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="M117" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="N117" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O117" s="20" t="s">
-        <v>402</v>
       </c>
       <c r="P117" s="10" t="s">
         <v>34</v>
@@ -8825,31 +8843,31 @@
         <v>166</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="I118" s="9" t="s">
         <v>269</v>
       </c>
       <c r="J118" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K118" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="L118" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="M118" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="N118" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O118" s="20" t="s">
         <v>403</v>
-      </c>
-      <c r="L118" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="M118" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="N118" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O118" s="20" t="s">
-        <v>404</v>
       </c>
       <c r="P118" s="10" t="s">
         <v>34</v>
@@ -8879,31 +8897,31 @@
         <v>166</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I119" s="9" t="s">
         <v>272</v>
       </c>
       <c r="J119" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K119" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="L119" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="M119" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="N119" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O119" s="20" t="s">
         <v>405</v>
-      </c>
-      <c r="L119" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="M119" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="N119" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O119" s="20" t="s">
-        <v>406</v>
       </c>
       <c r="P119" s="10" t="s">
         <v>34</v>
@@ -8933,13 +8951,13 @@
         <v>166</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>275</v>
+        <v>406</v>
       </c>
       <c r="J120" s="18">
         <v>6</v>
@@ -8948,10 +8966,10 @@
         <v>407</v>
       </c>
       <c r="L120" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M120" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N120" s="22" t="s">
         <v>32</v>
@@ -8987,25 +9005,25 @@
         <v>166</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J121" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K121" s="19" t="s">
         <v>409</v>
       </c>
       <c r="L121" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M121" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N121" s="22" t="s">
         <v>32</v>
@@ -9041,25 +9059,25 @@
         <v>166</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J122" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K122" s="19" t="s">
         <v>411</v>
       </c>
       <c r="L122" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M122" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N122" s="22" t="s">
         <v>32</v>
@@ -9095,25 +9113,25 @@
         <v>166</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J123" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K123" s="19" t="s">
         <v>413</v>
       </c>
       <c r="L123" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M123" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N123" s="22" t="s">
         <v>32</v>
@@ -9149,13 +9167,13 @@
         <v>166</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>60</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="J124" s="18">
         <v>10</v>
@@ -9164,10 +9182,10 @@
         <v>415</v>
       </c>
       <c r="L124" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M124" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N124" s="22" t="s">
         <v>32</v>
@@ -9203,7 +9221,7 @@
         <v>166</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H125" s="9" t="s">
         <v>60</v>
@@ -9218,10 +9236,10 @@
         <v>417</v>
       </c>
       <c r="L125" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M125" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N125" s="22" t="s">
         <v>32</v>
@@ -9257,25 +9275,25 @@
         <v>166</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I126" s="9" t="s">
         <v>290</v>
       </c>
       <c r="J126" s="18">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="K126" s="19" t="s">
         <v>419</v>
       </c>
       <c r="L126" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M126" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N126" s="22" t="s">
         <v>32</v>
@@ -9311,25 +9329,25 @@
         <v>166</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>293</v>
+        <v>60</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>294</v>
+        <v>375</v>
       </c>
       <c r="J127" s="18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K127" s="19" t="s">
         <v>421</v>
       </c>
       <c r="L127" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M127" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N127" s="22" t="s">
         <v>32</v>
@@ -9365,25 +9383,25 @@
         <v>166</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="J128" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K128" s="19" t="s">
         <v>423</v>
       </c>
       <c r="L128" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M128" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N128" s="22" t="s">
         <v>32</v>
@@ -9419,25 +9437,25 @@
         <v>166</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J129" s="18">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="K129" s="19" t="s">
         <v>425</v>
       </c>
       <c r="L129" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M129" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N129" s="22" t="s">
         <v>32</v>
@@ -9473,25 +9491,25 @@
         <v>166</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>112</v>
+        <v>299</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J130" s="18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K130" s="19" t="s">
         <v>427</v>
       </c>
       <c r="L130" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M130" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N130" s="22" t="s">
         <v>32</v>
@@ -9527,13 +9545,13 @@
         <v>166</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J131" s="18">
         <v>8</v>
@@ -9542,10 +9560,10 @@
         <v>429</v>
       </c>
       <c r="L131" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M131" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N131" s="22" t="s">
         <v>32</v>
@@ -9581,13 +9599,13 @@
         <v>166</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="J132" s="18">
         <v>8</v>
@@ -9596,10 +9614,10 @@
         <v>431</v>
       </c>
       <c r="L132" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M132" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N132" s="22" t="s">
         <v>32</v>
@@ -9635,13 +9653,13 @@
         <v>166</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J133" s="18">
         <v>8</v>
@@ -9650,10 +9668,10 @@
         <v>433</v>
       </c>
       <c r="L133" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M133" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N133" s="22" t="s">
         <v>32</v>
@@ -9689,13 +9707,13 @@
         <v>166</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="J134" s="18">
         <v>8</v>
@@ -9704,10 +9722,10 @@
         <v>435</v>
       </c>
       <c r="L134" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M134" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N134" s="22" t="s">
         <v>32</v>
@@ -9743,13 +9761,13 @@
         <v>166</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H135" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="J135" s="18">
         <v>8</v>
@@ -9758,10 +9776,10 @@
         <v>437</v>
       </c>
       <c r="L135" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M135" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N135" s="22" t="s">
         <v>32</v>
@@ -9797,25 +9815,25 @@
         <v>166</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>318</v>
+        <v>112</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J136" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K136" s="19" t="s">
         <v>439</v>
       </c>
       <c r="L136" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M136" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N136" s="22" t="s">
         <v>32</v>
@@ -9851,25 +9869,25 @@
         <v>166</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H137" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I137" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="I137" s="9" t="s">
-        <v>322</v>
-      </c>
       <c r="J137" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K137" s="19" t="s">
         <v>441</v>
       </c>
       <c r="L137" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M137" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N137" s="22" t="s">
         <v>32</v>
@@ -9905,25 +9923,25 @@
         <v>166</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="J138" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K138" s="19" t="s">
         <v>443</v>
       </c>
       <c r="L138" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M138" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N138" s="22" t="s">
         <v>32</v>
@@ -9959,25 +9977,25 @@
         <v>166</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H139" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="I139" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="I139" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="J139" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K139" s="19" t="s">
         <v>445</v>
       </c>
       <c r="L139" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M139" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N139" s="22" t="s">
         <v>32</v>
@@ -10013,25 +10031,25 @@
         <v>166</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>35</v>
+        <v>324</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="J140" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K140" s="19" t="s">
         <v>447</v>
       </c>
       <c r="L140" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M140" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N140" s="22" t="s">
         <v>32</v>
@@ -10067,25 +10085,25 @@
         <v>166</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="J141" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K141" s="19" t="s">
         <v>449</v>
       </c>
       <c r="L141" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M141" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N141" s="22" t="s">
         <v>32</v>
@@ -10121,25 +10139,25 @@
         <v>166</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>335</v>
+        <v>86</v>
       </c>
       <c r="J142" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K142" s="19" t="s">
         <v>451</v>
       </c>
       <c r="L142" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M142" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N142" s="22" t="s">
         <v>32</v>
@@ -10175,25 +10193,25 @@
         <v>166</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>338</v>
+        <v>223</v>
       </c>
       <c r="J143" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K143" s="19" t="s">
         <v>453</v>
       </c>
       <c r="L143" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M143" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N143" s="22" t="s">
         <v>32</v>
@@ -10229,25 +10247,25 @@
         <v>166</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>89</v>
+        <v>338</v>
       </c>
       <c r="J144" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K144" s="19" t="s">
         <v>455</v>
       </c>
       <c r="L144" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M144" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N144" s="22" t="s">
         <v>32</v>
@@ -10283,25 +10301,25 @@
         <v>166</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>92</v>
+        <v>341</v>
       </c>
       <c r="J145" s="18">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K145" s="19" t="s">
         <v>457</v>
       </c>
       <c r="L145" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M145" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N145" s="22" t="s">
         <v>32</v>
@@ -10337,25 +10355,25 @@
         <v>166</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>95</v>
+        <v>344</v>
       </c>
       <c r="J146" s="18">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K146" s="19" t="s">
         <v>459</v>
       </c>
       <c r="L146" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M146" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N146" s="22" t="s">
         <v>32</v>
@@ -10391,25 +10409,25 @@
         <v>166</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J147" s="18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K147" s="19" t="s">
         <v>461</v>
       </c>
       <c r="L147" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M147" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N147" s="22" t="s">
         <v>32</v>
@@ -10445,25 +10463,25 @@
         <v>166</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="J148" s="18">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K148" s="19" t="s">
         <v>463</v>
       </c>
       <c r="L148" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M148" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N148" s="22" t="s">
         <v>32</v>
@@ -10499,25 +10517,25 @@
         <v>166</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="J149" s="18">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K149" s="19" t="s">
         <v>465</v>
       </c>
       <c r="L149" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M149" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N149" s="22" t="s">
         <v>32</v>
@@ -10553,13 +10571,13 @@
         <v>166</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>353</v>
+        <v>98</v>
       </c>
       <c r="J150" s="18">
         <v>14</v>
@@ -10568,10 +10586,10 @@
         <v>467</v>
       </c>
       <c r="L150" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M150" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N150" s="22" t="s">
         <v>32</v>
@@ -10607,13 +10625,13 @@
         <v>166</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H151" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="J151" s="18">
         <v>14</v>
@@ -10622,10 +10640,10 @@
         <v>469</v>
       </c>
       <c r="L151" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M151" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N151" s="22" t="s">
         <v>32</v>
@@ -10661,13 +10679,13 @@
         <v>166</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>358</v>
+        <v>144</v>
       </c>
       <c r="J152" s="18">
         <v>14</v>
@@ -10676,10 +10694,10 @@
         <v>471</v>
       </c>
       <c r="L152" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M152" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N152" s="22" t="s">
         <v>32</v>
@@ -10715,13 +10733,13 @@
         <v>166</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="J153" s="18">
         <v>14</v>
@@ -10730,10 +10748,10 @@
         <v>473</v>
       </c>
       <c r="L153" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M153" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N153" s="22" t="s">
         <v>32</v>
@@ -10769,25 +10787,25 @@
         <v>166</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="J154" s="18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K154" s="19" t="s">
         <v>475</v>
       </c>
       <c r="L154" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M154" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N154" s="22" t="s">
         <v>32</v>
@@ -10823,25 +10841,25 @@
         <v>166</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>129</v>
+        <v>364</v>
       </c>
       <c r="J155" s="18">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="K155" s="19" t="s">
         <v>477</v>
       </c>
       <c r="L155" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M155" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N155" s="22" t="s">
         <v>32</v>
@@ -10877,25 +10895,25 @@
         <v>166</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="J156" s="18">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="K156" s="19" t="s">
         <v>479</v>
       </c>
       <c r="L156" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M156" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N156" s="22" t="s">
         <v>32</v>
@@ -10931,25 +10949,25 @@
         <v>166</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="J157" s="18">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K157" s="19" t="s">
         <v>481</v>
       </c>
       <c r="L157" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M157" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N157" s="22" t="s">
         <v>32</v>
@@ -10985,25 +11003,25 @@
         <v>166</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="J158" s="18">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="K158" s="19" t="s">
         <v>483</v>
       </c>
       <c r="L158" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M158" s="22" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="N158" s="22" t="s">
         <v>32</v>
@@ -11039,31 +11057,31 @@
         <v>166</v>
       </c>
       <c r="G159" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J159" s="18">
+        <v>27</v>
+      </c>
+      <c r="K159" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="H159" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="I159" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J159" s="18">
-        <v>0</v>
-      </c>
-      <c r="K159" s="19" t="s">
+      <c r="L159" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="M159" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="N159" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O159" s="20" t="s">
         <v>486</v>
-      </c>
-      <c r="L159" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="M159" s="22" t="s">
-        <v>487</v>
-      </c>
-      <c r="N159" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O159" s="20" t="s">
-        <v>488</v>
       </c>
       <c r="P159" s="10" t="s">
         <v>34</v>
@@ -11093,31 +11111,31 @@
         <v>166</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>485</v>
+        <v>387</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>247</v>
+        <v>50</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="J160" s="18">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K160" s="19" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L160" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M160" s="22" t="s">
-        <v>487</v>
+        <v>390</v>
       </c>
       <c r="N160" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O160" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="P160" s="10" t="s">
         <v>34</v>
@@ -11147,31 +11165,31 @@
         <v>166</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>485</v>
+        <v>387</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="J161" s="18">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="K161" s="19" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L161" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M161" s="22" t="s">
-        <v>487</v>
+        <v>390</v>
       </c>
       <c r="N161" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O161" s="20" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="P161" s="10" t="s">
         <v>34</v>
@@ -11201,25 +11219,25 @@
         <v>166</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="I162" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J162" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K162" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="L162" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="M162" s="22" t="s">
         <v>493</v>
-      </c>
-      <c r="L162" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="M162" s="22" t="s">
-        <v>487</v>
       </c>
       <c r="N162" s="22" t="s">
         <v>32</v>
@@ -11255,25 +11273,25 @@
         <v>166</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="I163" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J163" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K163" s="19" t="s">
         <v>495</v>
       </c>
       <c r="L163" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M163" s="22" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N163" s="22" t="s">
         <v>32</v>
@@ -11309,25 +11327,25 @@
         <v>166</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="I164" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J164" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K164" s="19" t="s">
         <v>497</v>
       </c>
       <c r="L164" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M164" s="22" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N164" s="22" t="s">
         <v>32</v>
@@ -11363,25 +11381,25 @@
         <v>166</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>60</v>
+        <v>268</v>
       </c>
       <c r="I165" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J165" s="18">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K165" s="19" t="s">
         <v>499</v>
       </c>
       <c r="L165" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M165" s="22" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N165" s="22" t="s">
         <v>32</v>
@@ -11417,25 +11435,25 @@
         <v>166</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="I166" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J166" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K166" s="19" t="s">
         <v>501</v>
       </c>
       <c r="L166" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M166" s="22" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N166" s="22" t="s">
         <v>32</v>
@@ -11471,25 +11489,25 @@
         <v>166</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="I167" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J167" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K167" s="19" t="s">
         <v>503</v>
       </c>
       <c r="L167" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M167" s="22" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N167" s="22" t="s">
         <v>32</v>
@@ -11525,25 +11543,25 @@
         <v>166</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="I168" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J168" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K168" s="19" t="s">
         <v>505</v>
       </c>
       <c r="L168" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M168" s="22" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N168" s="22" t="s">
         <v>32</v>
@@ -11579,25 +11597,25 @@
         <v>166</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="I169" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J169" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K169" s="19" t="s">
         <v>507</v>
       </c>
       <c r="L169" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M169" s="22" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N169" s="22" t="s">
         <v>32</v>
@@ -11633,25 +11651,25 @@
         <v>166</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="I170" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J170" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K170" s="19" t="s">
         <v>509</v>
       </c>
       <c r="L170" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M170" s="22" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N170" s="22" t="s">
         <v>32</v>
@@ -11687,25 +11705,25 @@
         <v>166</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="I171" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J171" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K171" s="19" t="s">
         <v>511</v>
       </c>
       <c r="L171" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M171" s="22" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N171" s="22" t="s">
         <v>32</v>
@@ -11741,10 +11759,10 @@
         <v>166</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="I172" s="9" t="s">
         <v>28</v>
@@ -11756,10 +11774,10 @@
         <v>513</v>
       </c>
       <c r="L172" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M172" s="22" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N172" s="22" t="s">
         <v>32</v>
@@ -11795,10 +11813,10 @@
         <v>166</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>115</v>
+        <v>331</v>
       </c>
       <c r="I173" s="9" t="s">
         <v>28</v>
@@ -11810,10 +11828,10 @@
         <v>515</v>
       </c>
       <c r="L173" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M173" s="22" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N173" s="22" t="s">
         <v>32</v>
@@ -11849,25 +11867,25 @@
         <v>166</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I174" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J174" s="18">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K174" s="19" t="s">
         <v>517</v>
       </c>
       <c r="L174" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M174" s="22" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N174" s="22" t="s">
         <v>32</v>
@@ -11903,25 +11921,25 @@
         <v>166</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="I175" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J175" s="18">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K175" s="19" t="s">
         <v>519</v>
       </c>
       <c r="L175" s="22" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M175" s="22" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N175" s="22" t="s">
         <v>32</v>
@@ -11948,7 +11966,7 @@
         <v>139</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>57</v>
@@ -11957,31 +11975,31 @@
         <v>166</v>
       </c>
       <c r="G176" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="H176" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I176" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J176" s="18">
+        <v>6</v>
+      </c>
+      <c r="K176" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="H176" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="I176" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J176" s="18">
-        <v>0</v>
-      </c>
-      <c r="K176" s="19" t="s">
+      <c r="L176" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="M176" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="N176" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O176" s="20" t="s">
         <v>522</v>
-      </c>
-      <c r="L176" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="M176" s="22" t="s">
-        <v>524</v>
-      </c>
-      <c r="N176" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O176" s="20" t="s">
-        <v>525</v>
       </c>
       <c r="P176" s="10" t="s">
         <v>34</v>
@@ -12002,7 +12020,7 @@
         <v>139</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>57</v>
@@ -12011,31 +12029,31 @@
         <v>166</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="J177" s="18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K177" s="19" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L177" s="22" t="s">
-        <v>523</v>
+        <v>389</v>
       </c>
       <c r="M177" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="N177" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O177" s="20" t="s">
         <v>524</v>
-      </c>
-      <c r="N177" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O177" s="20" t="s">
-        <v>527</v>
       </c>
       <c r="P177" s="10" t="s">
         <v>34</v>
@@ -12056,7 +12074,7 @@
         <v>139</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E178" s="10" t="s">
         <v>57</v>
@@ -12065,31 +12083,31 @@
         <v>166</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="J178" s="18">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K178" s="19" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L178" s="22" t="s">
-        <v>523</v>
+        <v>389</v>
       </c>
       <c r="M178" s="22" t="s">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="N178" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O178" s="20" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P178" s="10" t="s">
         <v>34</v>
@@ -12119,25 +12137,25 @@
         <v>166</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J179" s="18">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K179" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L179" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="M179" s="22" t="s">
         <v>530</v>
-      </c>
-      <c r="L179" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="M179" s="22" t="s">
-        <v>524</v>
       </c>
       <c r="N179" s="22" t="s">
         <v>32</v>
@@ -12173,25 +12191,25 @@
         <v>166</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>70</v>
+        <v>253</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>67</v>
+        <v>254</v>
       </c>
       <c r="J180" s="18">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K180" s="19" t="s">
         <v>532</v>
       </c>
       <c r="L180" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M180" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N180" s="22" t="s">
         <v>32</v>
@@ -12227,25 +12245,25 @@
         <v>166</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>259</v>
+        <v>61</v>
       </c>
       <c r="J181" s="18">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="K181" s="19" t="s">
         <v>534</v>
       </c>
       <c r="L181" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M181" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N181" s="22" t="s">
         <v>32</v>
@@ -12281,25 +12299,25 @@
         <v>166</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>262</v>
+        <v>66</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J182" s="18">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="K182" s="19" t="s">
         <v>536</v>
       </c>
       <c r="L182" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M182" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N182" s="22" t="s">
         <v>32</v>
@@ -12335,25 +12353,25 @@
         <v>166</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="J183" s="18">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="K183" s="19" t="s">
         <v>538</v>
       </c>
       <c r="L183" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M183" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N183" s="22" t="s">
         <v>32</v>
@@ -12389,25 +12407,25 @@
         <v>166</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="J184" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K184" s="19" t="s">
         <v>540</v>
       </c>
       <c r="L184" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M184" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N184" s="22" t="s">
         <v>32</v>
@@ -12443,25 +12461,25 @@
         <v>166</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="I185" s="9" t="s">
         <v>269</v>
       </c>
       <c r="J185" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K185" s="19" t="s">
         <v>542</v>
       </c>
       <c r="L185" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M185" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N185" s="22" t="s">
         <v>32</v>
@@ -12497,25 +12515,25 @@
         <v>166</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I186" s="9" t="s">
         <v>272</v>
       </c>
       <c r="J186" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K186" s="19" t="s">
         <v>544</v>
       </c>
       <c r="L186" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M186" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N186" s="22" t="s">
         <v>32</v>
@@ -12551,13 +12569,13 @@
         <v>166</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>275</v>
+        <v>406</v>
       </c>
       <c r="J187" s="18">
         <v>6</v>
@@ -12566,10 +12584,10 @@
         <v>546</v>
       </c>
       <c r="L187" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M187" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N187" s="22" t="s">
         <v>32</v>
@@ -12605,25 +12623,25 @@
         <v>166</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J188" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K188" s="19" t="s">
         <v>548</v>
       </c>
       <c r="L188" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M188" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N188" s="22" t="s">
         <v>32</v>
@@ -12659,25 +12677,25 @@
         <v>166</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J189" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K189" s="19" t="s">
         <v>550</v>
       </c>
       <c r="L189" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M189" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N189" s="22" t="s">
         <v>32</v>
@@ -12713,25 +12731,25 @@
         <v>166</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J190" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K190" s="19" t="s">
         <v>552</v>
       </c>
       <c r="L190" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M190" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N190" s="22" t="s">
         <v>32</v>
@@ -12767,13 +12785,13 @@
         <v>166</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>60</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="J191" s="18">
         <v>10</v>
@@ -12782,10 +12800,10 @@
         <v>554</v>
       </c>
       <c r="L191" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M191" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N191" s="22" t="s">
         <v>32</v>
@@ -12821,7 +12839,7 @@
         <v>166</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H192" s="9" t="s">
         <v>60</v>
@@ -12836,10 +12854,10 @@
         <v>556</v>
       </c>
       <c r="L192" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M192" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N192" s="22" t="s">
         <v>32</v>
@@ -12875,25 +12893,25 @@
         <v>166</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H193" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I193" s="9" t="s">
         <v>290</v>
       </c>
       <c r="J193" s="18">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="K193" s="19" t="s">
         <v>558</v>
       </c>
       <c r="L193" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M193" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N193" s="22" t="s">
         <v>32</v>
@@ -12929,25 +12947,25 @@
         <v>166</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>293</v>
+        <v>60</v>
       </c>
       <c r="I194" s="9" t="s">
-        <v>294</v>
+        <v>375</v>
       </c>
       <c r="J194" s="18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K194" s="19" t="s">
         <v>560</v>
       </c>
       <c r="L194" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M194" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N194" s="22" t="s">
         <v>32</v>
@@ -12983,25 +13001,25 @@
         <v>166</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="I195" s="9" t="s">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="J195" s="18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K195" s="19" t="s">
         <v>562</v>
       </c>
       <c r="L195" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M195" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N195" s="22" t="s">
         <v>32</v>
@@ -13037,25 +13055,25 @@
         <v>166</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="I196" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J196" s="18">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="K196" s="19" t="s">
         <v>564</v>
       </c>
       <c r="L196" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N196" s="22" t="s">
         <v>32</v>
@@ -13091,25 +13109,25 @@
         <v>166</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>112</v>
+        <v>299</v>
       </c>
       <c r="I197" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J197" s="18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K197" s="19" t="s">
         <v>566</v>
       </c>
       <c r="L197" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M197" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N197" s="22" t="s">
         <v>32</v>
@@ -13145,13 +13163,13 @@
         <v>166</v>
       </c>
       <c r="G198" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H198" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I198" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J198" s="18">
         <v>8</v>
@@ -13160,10 +13178,10 @@
         <v>568</v>
       </c>
       <c r="L198" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M198" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N198" s="22" t="s">
         <v>32</v>
@@ -13199,13 +13217,13 @@
         <v>166</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H199" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I199" s="9" t="s">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="J199" s="18">
         <v>8</v>
@@ -13214,10 +13232,10 @@
         <v>570</v>
       </c>
       <c r="L199" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M199" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N199" s="22" t="s">
         <v>32</v>
@@ -13253,13 +13271,13 @@
         <v>166</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H200" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I200" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J200" s="18">
         <v>8</v>
@@ -13268,10 +13286,10 @@
         <v>572</v>
       </c>
       <c r="L200" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M200" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N200" s="22" t="s">
         <v>32</v>
@@ -13307,13 +13325,13 @@
         <v>166</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H201" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I201" s="9" t="s">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="J201" s="18">
         <v>8</v>
@@ -13322,10 +13340,10 @@
         <v>574</v>
       </c>
       <c r="L201" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M201" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N201" s="22" t="s">
         <v>32</v>
@@ -13361,13 +13379,13 @@
         <v>166</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H202" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I202" s="9" t="s">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="J202" s="18">
         <v>8</v>
@@ -13376,10 +13394,10 @@
         <v>576</v>
       </c>
       <c r="L202" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M202" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N202" s="22" t="s">
         <v>32</v>
@@ -13415,25 +13433,25 @@
         <v>166</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H203" s="9" t="s">
-        <v>318</v>
+        <v>112</v>
       </c>
       <c r="I203" s="9" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J203" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K203" s="19" t="s">
         <v>578</v>
       </c>
       <c r="L203" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M203" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N203" s="22" t="s">
         <v>32</v>
@@ -13469,25 +13487,25 @@
         <v>166</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H204" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I204" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="I204" s="9" t="s">
-        <v>322</v>
-      </c>
       <c r="J204" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K204" s="19" t="s">
         <v>580</v>
       </c>
       <c r="L204" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M204" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N204" s="22" t="s">
         <v>32</v>
@@ -13523,25 +13541,25 @@
         <v>166</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
       <c r="I205" s="9" t="s">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="J205" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K205" s="19" t="s">
         <v>582</v>
       </c>
       <c r="L205" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M205" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N205" s="22" t="s">
         <v>32</v>
@@ -13577,25 +13595,25 @@
         <v>166</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H206" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="I206" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="I206" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="J206" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K206" s="19" t="s">
         <v>584</v>
       </c>
       <c r="L206" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M206" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N206" s="22" t="s">
         <v>32</v>
@@ -13631,25 +13649,25 @@
         <v>166</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H207" s="9" t="s">
-        <v>35</v>
+        <v>324</v>
       </c>
       <c r="I207" s="9" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="J207" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K207" s="19" t="s">
         <v>586</v>
       </c>
       <c r="L207" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M207" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N207" s="22" t="s">
         <v>32</v>
@@ -13685,25 +13703,25 @@
         <v>166</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H208" s="9" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="I208" s="9" t="s">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="J208" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K208" s="19" t="s">
         <v>588</v>
       </c>
       <c r="L208" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M208" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N208" s="22" t="s">
         <v>32</v>
@@ -13739,25 +13757,25 @@
         <v>166</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H209" s="9" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="I209" s="9" t="s">
-        <v>335</v>
+        <v>86</v>
       </c>
       <c r="J209" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K209" s="19" t="s">
         <v>590</v>
       </c>
       <c r="L209" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M209" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N209" s="22" t="s">
         <v>32</v>
@@ -13793,25 +13811,25 @@
         <v>166</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H210" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I210" s="9" t="s">
-        <v>338</v>
+        <v>223</v>
       </c>
       <c r="J210" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K210" s="19" t="s">
         <v>592</v>
       </c>
       <c r="L210" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M210" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N210" s="22" t="s">
         <v>32</v>
@@ -13847,25 +13865,25 @@
         <v>166</v>
       </c>
       <c r="G211" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H211" s="9" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="I211" s="9" t="s">
-        <v>89</v>
+        <v>338</v>
       </c>
       <c r="J211" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K211" s="19" t="s">
         <v>594</v>
       </c>
       <c r="L211" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M211" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N211" s="22" t="s">
         <v>32</v>
@@ -13901,25 +13919,25 @@
         <v>166</v>
       </c>
       <c r="G212" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H212" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I212" s="9" t="s">
-        <v>92</v>
+        <v>341</v>
       </c>
       <c r="J212" s="18">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K212" s="19" t="s">
         <v>596</v>
       </c>
       <c r="L212" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M212" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N212" s="22" t="s">
         <v>32</v>
@@ -13955,25 +13973,25 @@
         <v>166</v>
       </c>
       <c r="G213" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H213" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I213" s="9" t="s">
-        <v>95</v>
+        <v>344</v>
       </c>
       <c r="J213" s="18">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K213" s="19" t="s">
         <v>598</v>
       </c>
       <c r="L213" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M213" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N213" s="22" t="s">
         <v>32</v>
@@ -14009,25 +14027,25 @@
         <v>166</v>
       </c>
       <c r="G214" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H214" s="9" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="I214" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J214" s="18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K214" s="19" t="s">
         <v>600</v>
       </c>
       <c r="L214" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M214" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N214" s="22" t="s">
         <v>32</v>
@@ -14063,25 +14081,25 @@
         <v>166</v>
       </c>
       <c r="G215" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H215" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I215" s="9" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="J215" s="18">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K215" s="19" t="s">
         <v>602</v>
       </c>
       <c r="L215" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M215" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N215" s="22" t="s">
         <v>32</v>
@@ -14117,25 +14135,25 @@
         <v>166</v>
       </c>
       <c r="G216" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H216" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I216" s="9" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="J216" s="18">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K216" s="19" t="s">
         <v>604</v>
       </c>
       <c r="L216" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M216" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N216" s="22" t="s">
         <v>32</v>
@@ -14171,13 +14189,13 @@
         <v>166</v>
       </c>
       <c r="G217" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H217" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I217" s="9" t="s">
-        <v>353</v>
+        <v>98</v>
       </c>
       <c r="J217" s="18">
         <v>14</v>
@@ -14186,10 +14204,10 @@
         <v>606</v>
       </c>
       <c r="L217" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M217" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N217" s="22" t="s">
         <v>32</v>
@@ -14225,13 +14243,13 @@
         <v>166</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H218" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I218" s="9" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="J218" s="18">
         <v>14</v>
@@ -14240,10 +14258,10 @@
         <v>608</v>
       </c>
       <c r="L218" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M218" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N218" s="22" t="s">
         <v>32</v>
@@ -14279,13 +14297,13 @@
         <v>166</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H219" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I219" s="9" t="s">
-        <v>358</v>
+        <v>144</v>
       </c>
       <c r="J219" s="18">
         <v>14</v>
@@ -14294,10 +14312,10 @@
         <v>610</v>
       </c>
       <c r="L219" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M219" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N219" s="22" t="s">
         <v>32</v>
@@ -14333,13 +14351,13 @@
         <v>166</v>
       </c>
       <c r="G220" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H220" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I220" s="9" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="J220" s="18">
         <v>14</v>
@@ -14348,10 +14366,10 @@
         <v>612</v>
       </c>
       <c r="L220" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M220" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N220" s="22" t="s">
         <v>32</v>
@@ -14387,25 +14405,25 @@
         <v>166</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H221" s="9" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="I221" s="9" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="J221" s="18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K221" s="19" t="s">
         <v>614</v>
       </c>
       <c r="L221" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M221" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N221" s="22" t="s">
         <v>32</v>
@@ -14441,25 +14459,25 @@
         <v>166</v>
       </c>
       <c r="G222" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="I222" s="9" t="s">
-        <v>129</v>
+        <v>364</v>
       </c>
       <c r="J222" s="18">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="K222" s="19" t="s">
         <v>616</v>
       </c>
       <c r="L222" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M222" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N222" s="22" t="s">
         <v>32</v>
@@ -14495,25 +14513,25 @@
         <v>166</v>
       </c>
       <c r="G223" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H223" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I223" s="9" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="J223" s="18">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="K223" s="19" t="s">
         <v>618</v>
       </c>
       <c r="L223" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M223" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N223" s="22" t="s">
         <v>32</v>
@@ -14549,25 +14567,25 @@
         <v>166</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H224" s="9" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="I224" s="9" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="J224" s="18">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K224" s="19" t="s">
         <v>620</v>
       </c>
       <c r="L224" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M224" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N224" s="22" t="s">
         <v>32</v>
@@ -14603,25 +14621,25 @@
         <v>166</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H225" s="9" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="I225" s="9" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="J225" s="18">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="K225" s="19" t="s">
         <v>622</v>
       </c>
       <c r="L225" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M225" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N225" s="22" t="s">
         <v>32</v>
@@ -14648,7 +14666,7 @@
         <v>139</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E226" s="10" t="s">
         <v>57</v>
@@ -14657,31 +14675,31 @@
         <v>166</v>
       </c>
       <c r="G226" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="H226" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I226" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J226" s="18">
+        <v>27</v>
+      </c>
+      <c r="K226" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="H226" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I226" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J226" s="18">
-        <v>40</v>
-      </c>
-      <c r="K226" s="19" t="s">
+      <c r="L226" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="M226" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="N226" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O226" s="20" t="s">
         <v>625</v>
-      </c>
-      <c r="L226" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="M226" s="22" t="s">
-        <v>626</v>
-      </c>
-      <c r="N226" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O226" s="20" t="s">
-        <v>627</v>
       </c>
       <c r="P226" s="10" t="s">
         <v>34</v>
@@ -14702,7 +14720,7 @@
         <v>139</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E227" s="10" t="s">
         <v>57</v>
@@ -14711,31 +14729,31 @@
         <v>166</v>
       </c>
       <c r="G227" s="9" t="s">
-        <v>624</v>
+        <v>527</v>
       </c>
       <c r="H227" s="9" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="I227" s="9" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="J227" s="18">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="K227" s="19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L227" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M227" s="22" t="s">
-        <v>626</v>
+        <v>530</v>
       </c>
       <c r="N227" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O227" s="20" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="P227" s="10" t="s">
         <v>34</v>
@@ -14756,7 +14774,7 @@
         <v>139</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E228" s="10" t="s">
         <v>57</v>
@@ -14765,31 +14783,31 @@
         <v>166</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>624</v>
+        <v>527</v>
       </c>
       <c r="H228" s="9" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="I228" s="9" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="J228" s="18">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K228" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="L228" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M228" s="22" t="s">
-        <v>626</v>
+        <v>530</v>
       </c>
       <c r="N228" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O228" s="20" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="P228" s="10" t="s">
         <v>34</v>
@@ -14819,25 +14837,25 @@
         <v>166</v>
       </c>
       <c r="G229" s="9" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H229" s="9" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="I229" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J229" s="18">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="K229" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="L229" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="M229" s="22" t="s">
         <v>632</v>
-      </c>
-      <c r="L229" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="M229" s="22" t="s">
-        <v>626</v>
       </c>
       <c r="N229" s="22" t="s">
         <v>32</v>
@@ -14873,25 +14891,25 @@
         <v>166</v>
       </c>
       <c r="G230" s="9" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H230" s="9" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="I230" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J230" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K230" s="19" t="s">
         <v>634</v>
       </c>
       <c r="L230" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M230" s="22" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="N230" s="22" t="s">
         <v>32</v>
@@ -14927,25 +14945,25 @@
         <v>166</v>
       </c>
       <c r="G231" s="9" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H231" s="9" t="s">
-        <v>325</v>
+        <v>74</v>
       </c>
       <c r="I231" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J231" s="18">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="K231" s="19" t="s">
         <v>636</v>
       </c>
       <c r="L231" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M231" s="22" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="N231" s="22" t="s">
         <v>32</v>
@@ -14981,25 +14999,25 @@
         <v>166</v>
       </c>
       <c r="G232" s="9" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H232" s="9" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="I232" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J232" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K232" s="19" t="s">
         <v>638</v>
       </c>
       <c r="L232" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M232" s="22" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="N232" s="22" t="s">
         <v>32</v>
@@ -15035,25 +15053,25 @@
         <v>166</v>
       </c>
       <c r="G233" s="9" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H233" s="9" t="s">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="I233" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J233" s="18">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="K233" s="19" t="s">
         <v>640</v>
       </c>
       <c r="L233" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M233" s="22" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="N233" s="22" t="s">
         <v>32</v>
@@ -15089,25 +15107,25 @@
         <v>166</v>
       </c>
       <c r="G234" s="9" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H234" s="9" t="s">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="I234" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J234" s="18">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="K234" s="19" t="s">
         <v>642</v>
       </c>
       <c r="L234" s="22" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M234" s="22" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="N234" s="22" t="s">
         <v>32</v>
@@ -15122,6 +15140,168 @@
       <c r="R234" s="17"/>
       <c r="S234" s="17"/>
       <c r="T234" s="16"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E235" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F235" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G235" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="H235" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I235" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J235" s="18">
+        <v>1</v>
+      </c>
+      <c r="K235" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="L235" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="M235" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="N235" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O235" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="P235" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q235" s="19"/>
+      <c r="R235" s="17"/>
+      <c r="S235" s="17"/>
+      <c r="T235" s="16"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E236" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F236" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G236" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="H236" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I236" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J236" s="18">
+        <v>52</v>
+      </c>
+      <c r="K236" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="L236" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="M236" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="N236" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O236" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="P236" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q236" s="19"/>
+      <c r="R236" s="17"/>
+      <c r="S236" s="17"/>
+      <c r="T236" s="16"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E237" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F237" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="H237" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I237" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J237" s="18">
+        <v>52</v>
+      </c>
+      <c r="K237" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="L237" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="M237" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="N237" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O237" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="P237" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q237" s="19"/>
+      <c r="R237" s="17"/>
+      <c r="S237" s="17"/>
+      <c r="T237" s="16"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>

--- a/Threagile_ChemoDemo/risks.xlsx
+++ b/Threagile_ChemoDemo/risks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
   <si>
     <t>Severity</t>
   </si>
@@ -676,12 +676,6 @@
     <t>dos-risky-access-across-trust-boundary@DC1@DC2@DC2&gt;dc2-to-dc1</t>
   </si>
   <si>
-    <t>Denial-of-Service risky access of DC2 by R2 via R2-to-DC2-NTP</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@DC2@R2@R2&gt;r2-to-dc2-ntp</t>
-  </si>
-  <si>
     <t>FW2</t>
   </si>
   <si>
@@ -740,18 +734,6 @@
   </si>
   <si>
     <t>dos-risky-access-across-trust-boundary@FW4@S4@S4&gt;s4-to-fw4</t>
-  </si>
-  <si>
-    <t>Denial-of-Service risky access of OS1 by R2 via R2-to-OS1-Admin</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@OS1@R2@R2&gt;r2-to-os1-admin</t>
-  </si>
-  <si>
-    <t>Denial-of-Service risky access of OS1 by R2 via R2-to-OS1</t>
-  </si>
-  <si>
-    <t>dos-risky-access-across-trust-boundary@OS1@R2@R2&gt;r2-to-os1</t>
   </si>
   <si>
     <t>Incomplete Model</t>
@@ -5390,16 +5372,16 @@
         <v>215</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="J54" s="18">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L54" s="22" t="s">
         <v>217</v>
@@ -5411,7 +5393,7 @@
         <v>32</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P54" s="10" t="s">
         <v>34</v>
@@ -5444,16 +5426,16 @@
         <v>215</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J55" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L55" s="22" t="s">
         <v>217</v>
@@ -5465,7 +5447,7 @@
         <v>32</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P55" s="10" t="s">
         <v>34</v>
@@ -5498,16 +5480,16 @@
         <v>215</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J56" s="18">
         <v>6</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L56" s="22" t="s">
         <v>217</v>
@@ -5519,7 +5501,7 @@
         <v>32</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>34</v>
@@ -5552,16 +5534,16 @@
         <v>215</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J57" s="18">
         <v>6</v>
       </c>
       <c r="K57" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L57" s="22" t="s">
         <v>217</v>
@@ -5573,7 +5555,7 @@
         <v>32</v>
       </c>
       <c r="O57" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>34</v>
@@ -5606,13 +5588,13 @@
         <v>215</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="J58" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K58" s="19" t="s">
         <v>234</v>
@@ -5663,7 +5645,7 @@
         <v>60</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="J59" s="18">
         <v>10</v>
@@ -5717,7 +5699,7 @@
         <v>60</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="J60" s="18">
         <v>10</v>
@@ -5756,40 +5738,40 @@
         <v>139</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="J61" s="18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="M61" s="22" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="N61" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P61" s="10" t="s">
         <v>34</v>
@@ -5810,40 +5792,40 @@
         <v>139</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="J62" s="18">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="M62" s="22" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="N62" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O62" s="20" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="P62" s="10" t="s">
         <v>34</v>
@@ -5864,40 +5846,40 @@
         <v>139</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J63" s="18">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="K63" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="L63" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="L63" s="22" t="s">
-        <v>217</v>
-      </c>
       <c r="M63" s="22" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="N63" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O63" s="20" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="P63" s="10" t="s">
         <v>34</v>
@@ -5927,31 +5909,31 @@
         <v>166</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J64" s="18">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N64" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O64" s="20" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P64" s="10" t="s">
         <v>34</v>
@@ -5981,31 +5963,31 @@
         <v>166</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="J65" s="18">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M65" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N65" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O65" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P65" s="10" t="s">
         <v>34</v>
@@ -6035,31 +6017,31 @@
         <v>166</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="J66" s="18">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L66" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M66" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N66" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O66" s="20" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P66" s="10" t="s">
         <v>34</v>
@@ -6089,31 +6071,31 @@
         <v>166</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J67" s="18">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K67" s="19" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M67" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N67" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O67" s="20" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P67" s="10" t="s">
         <v>34</v>
@@ -6143,31 +6125,31 @@
         <v>166</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="J68" s="18">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K68" s="19" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N68" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O68" s="20" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P68" s="10" t="s">
         <v>34</v>
@@ -6197,31 +6179,31 @@
         <v>166</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J69" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K69" s="19" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N69" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O69" s="20" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P69" s="10" t="s">
         <v>34</v>
@@ -6251,31 +6233,31 @@
         <v>166</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J70" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N70" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P70" s="10" t="s">
         <v>34</v>
@@ -6305,31 +6287,31 @@
         <v>166</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J71" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N71" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O71" s="20" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P71" s="10" t="s">
         <v>34</v>
@@ -6359,31 +6341,31 @@
         <v>166</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J72" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N72" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O72" s="20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P72" s="10" t="s">
         <v>34</v>
@@ -6413,31 +6395,31 @@
         <v>166</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J73" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K73" s="19" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L73" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N73" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O73" s="20" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P73" s="10" t="s">
         <v>34</v>
@@ -6467,31 +6449,31 @@
         <v>166</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J74" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K74" s="19" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N74" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P74" s="10" t="s">
         <v>34</v>
@@ -6521,31 +6503,31 @@
         <v>166</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>60</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J75" s="18">
         <v>10</v>
       </c>
       <c r="K75" s="19" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M75" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N75" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O75" s="20" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P75" s="10" t="s">
         <v>34</v>
@@ -6575,31 +6557,31 @@
         <v>166</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J76" s="18">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N76" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O76" s="20" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P76" s="10" t="s">
         <v>34</v>
@@ -6629,31 +6611,31 @@
         <v>166</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J77" s="18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M77" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N77" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="20" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P77" s="10" t="s">
         <v>34</v>
@@ -6683,31 +6665,31 @@
         <v>166</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>293</v>
+        <v>71</v>
       </c>
       <c r="J78" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M78" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N78" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O78" s="20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P78" s="10" t="s">
         <v>34</v>
@@ -6737,31 +6719,31 @@
         <v>166</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J79" s="18">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M79" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N79" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O79" s="20" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P79" s="10" t="s">
         <v>34</v>
@@ -6791,31 +6773,31 @@
         <v>166</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>299</v>
+        <v>112</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J80" s="18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M80" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N80" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O80" s="20" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P80" s="10" t="s">
         <v>34</v>
@@ -6845,31 +6827,31 @@
         <v>166</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J81" s="18">
         <v>8</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M81" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N81" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O81" s="20" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P81" s="10" t="s">
         <v>34</v>
@@ -6899,31 +6881,31 @@
         <v>166</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="J82" s="18">
         <v>8</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M82" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N82" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O82" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P82" s="10" t="s">
         <v>34</v>
@@ -6953,31 +6935,31 @@
         <v>166</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J83" s="18">
         <v>8</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M83" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N83" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O83" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P83" s="10" t="s">
         <v>34</v>
@@ -7007,31 +6989,31 @@
         <v>166</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="J84" s="18">
         <v>8</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M84" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N84" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O84" s="20" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P84" s="10" t="s">
         <v>34</v>
@@ -7061,31 +7043,31 @@
         <v>166</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="J85" s="18">
         <v>8</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M85" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N85" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O85" s="20" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P85" s="10" t="s">
         <v>34</v>
@@ -7115,31 +7097,31 @@
         <v>166</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J86" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M86" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N86" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O86" s="20" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P86" s="10" t="s">
         <v>34</v>
@@ -7169,31 +7151,31 @@
         <v>166</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J87" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M87" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N87" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O87" s="20" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P87" s="10" t="s">
         <v>34</v>
@@ -7223,31 +7205,31 @@
         <v>166</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="J88" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M88" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N88" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O88" s="20" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P88" s="10" t="s">
         <v>34</v>
@@ -7277,31 +7259,31 @@
         <v>166</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="J89" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M89" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N89" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O89" s="20" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P89" s="10" t="s">
         <v>34</v>
@@ -7331,31 +7313,31 @@
         <v>166</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>324</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="J90" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M90" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N90" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O90" s="20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P90" s="10" t="s">
         <v>34</v>
@@ -7385,31 +7367,31 @@
         <v>166</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="J91" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M91" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N91" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O91" s="20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P91" s="10" t="s">
         <v>34</v>
@@ -7439,31 +7421,31 @@
         <v>166</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
       <c r="J92" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M92" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N92" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O92" s="20" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P92" s="10" t="s">
         <v>34</v>
@@ -7493,31 +7475,31 @@
         <v>166</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>223</v>
+        <v>338</v>
       </c>
       <c r="J93" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K93" s="19" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M93" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N93" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O93" s="20" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P93" s="10" t="s">
         <v>34</v>
@@ -7547,31 +7529,31 @@
         <v>166</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>338</v>
+        <v>89</v>
       </c>
       <c r="J94" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M94" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N94" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O94" s="20" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P94" s="10" t="s">
         <v>34</v>
@@ -7601,31 +7583,31 @@
         <v>166</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H95" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J95" s="18">
         <v>38</v>
       </c>
-      <c r="I95" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="J95" s="18">
-        <v>1</v>
-      </c>
       <c r="K95" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M95" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N95" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O95" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P95" s="10" t="s">
         <v>34</v>
@@ -7655,25 +7637,25 @@
         <v>166</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H96" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J96" s="18">
         <v>38</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="J96" s="18">
-        <v>1</v>
       </c>
       <c r="K96" s="19" t="s">
         <v>345</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M96" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N96" s="22" t="s">
         <v>32</v>
@@ -7709,25 +7691,25 @@
         <v>166</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J97" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K97" s="19" t="s">
         <v>347</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M97" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N97" s="22" t="s">
         <v>32</v>
@@ -7763,25 +7745,25 @@
         <v>166</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="J98" s="18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K98" s="19" t="s">
         <v>349</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M98" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N98" s="22" t="s">
         <v>32</v>
@@ -7817,25 +7799,25 @@
         <v>166</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="J99" s="18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K99" s="19" t="s">
         <v>351</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M99" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N99" s="22" t="s">
         <v>32</v>
@@ -7871,31 +7853,31 @@
         <v>166</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H100" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="J100" s="18">
         <v>14</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L100" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M100" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N100" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O100" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P100" s="10" t="s">
         <v>34</v>
@@ -7925,31 +7907,31 @@
         <v>166</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="J101" s="18">
         <v>14</v>
       </c>
       <c r="K101" s="19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L101" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M101" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N101" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O101" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P101" s="10" t="s">
         <v>34</v>
@@ -7979,31 +7961,31 @@
         <v>166</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>144</v>
+        <v>358</v>
       </c>
       <c r="J102" s="18">
         <v>14</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L102" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M102" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N102" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O102" s="20" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P102" s="10" t="s">
         <v>34</v>
@@ -8033,31 +8015,31 @@
         <v>166</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H103" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>359</v>
+        <v>134</v>
       </c>
       <c r="J103" s="18">
         <v>14</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L103" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M103" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N103" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O103" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P103" s="10" t="s">
         <v>34</v>
@@ -8087,31 +8069,31 @@
         <v>166</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="J104" s="18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L104" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M104" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N104" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O104" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P104" s="10" t="s">
         <v>34</v>
@@ -8141,25 +8123,25 @@
         <v>166</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>364</v>
+        <v>129</v>
       </c>
       <c r="J105" s="18">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="K105" s="19" t="s">
         <v>365</v>
       </c>
       <c r="L105" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M105" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N105" s="22" t="s">
         <v>32</v>
@@ -8186,40 +8168,40 @@
         <v>139</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>166</v>
+        <v>367</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="J106" s="18">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K106" s="19" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L106" s="22" t="s">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="M106" s="22" t="s">
-        <v>251</v>
+        <v>372</v>
       </c>
       <c r="N106" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O106" s="20" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="P106" s="10" t="s">
         <v>34</v>
@@ -8240,40 +8222,40 @@
         <v>139</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>166</v>
+        <v>367</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="J107" s="18">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L107" s="22" t="s">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="M107" s="22" t="s">
-        <v>251</v>
+        <v>372</v>
       </c>
       <c r="N107" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O107" s="20" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="P107" s="10" t="s">
         <v>34</v>
@@ -8294,40 +8276,40 @@
         <v>139</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>166</v>
+        <v>376</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>246</v>
+        <v>377</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="J108" s="18">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L108" s="22" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="M108" s="22" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="N108" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O108" s="20" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="P108" s="10" t="s">
         <v>34</v>
@@ -8354,34 +8336,34 @@
         <v>57</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>373</v>
+        <v>166</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>375</v>
+        <v>242</v>
       </c>
       <c r="J109" s="18">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K109" s="19" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L109" s="22" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M109" s="22" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="N109" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O109" s="20" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="P109" s="10" t="s">
         <v>34</v>
@@ -8408,34 +8390,34 @@
         <v>57</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>373</v>
+        <v>166</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c r="J110" s="18">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K110" s="19" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L110" s="22" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M110" s="22" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="N110" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O110" s="20" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P110" s="10" t="s">
         <v>34</v>
@@ -8456,40 +8438,40 @@
         <v>139</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>57</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>382</v>
+        <v>166</v>
       </c>
       <c r="G111" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J111" s="18">
+        <v>34</v>
+      </c>
+      <c r="K111" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="L111" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="H111" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J111" s="18">
-        <v>16</v>
-      </c>
-      <c r="K111" s="19" t="s">
+      <c r="M111" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="L111" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="M111" s="22" t="s">
-        <v>385</v>
-      </c>
       <c r="N111" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P111" s="10" t="s">
         <v>34</v>
@@ -8519,25 +8501,25 @@
         <v>166</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J112" s="18">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K112" s="19" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L112" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M112" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N112" s="22" t="s">
         <v>32</v>
@@ -8573,25 +8555,25 @@
         <v>166</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="J113" s="18">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K113" s="19" t="s">
         <v>392</v>
       </c>
       <c r="L113" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M113" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N113" s="22" t="s">
         <v>32</v>
@@ -8627,25 +8609,25 @@
         <v>166</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="J114" s="18">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K114" s="19" t="s">
         <v>394</v>
       </c>
       <c r="L114" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M114" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N114" s="22" t="s">
         <v>32</v>
@@ -8681,25 +8663,25 @@
         <v>166</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J115" s="18">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K115" s="19" t="s">
         <v>396</v>
       </c>
       <c r="L115" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M115" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N115" s="22" t="s">
         <v>32</v>
@@ -8735,25 +8717,25 @@
         <v>166</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="J116" s="18">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K116" s="19" t="s">
         <v>398</v>
       </c>
       <c r="L116" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M116" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N116" s="22" t="s">
         <v>32</v>
@@ -8789,31 +8771,31 @@
         <v>166</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>265</v>
+        <v>400</v>
       </c>
       <c r="J117" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K117" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L117" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M117" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N117" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O117" s="20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P117" s="10" t="s">
         <v>34</v>
@@ -8843,31 +8825,31 @@
         <v>166</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="I118" s="9" t="s">
         <v>269</v>
       </c>
       <c r="J118" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K118" s="19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L118" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M118" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N118" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O118" s="20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P118" s="10" t="s">
         <v>34</v>
@@ -8897,31 +8879,31 @@
         <v>166</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I119" s="9" t="s">
         <v>272</v>
       </c>
       <c r="J119" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K119" s="19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L119" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M119" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N119" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O119" s="20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P119" s="10" t="s">
         <v>34</v>
@@ -8951,13 +8933,13 @@
         <v>166</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>406</v>
+        <v>275</v>
       </c>
       <c r="J120" s="18">
         <v>6</v>
@@ -8966,10 +8948,10 @@
         <v>407</v>
       </c>
       <c r="L120" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M120" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N120" s="22" t="s">
         <v>32</v>
@@ -9005,25 +8987,25 @@
         <v>166</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J121" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K121" s="19" t="s">
         <v>409</v>
       </c>
       <c r="L121" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M121" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N121" s="22" t="s">
         <v>32</v>
@@ -9059,25 +9041,25 @@
         <v>166</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J122" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K122" s="19" t="s">
         <v>411</v>
       </c>
       <c r="L122" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M122" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N122" s="22" t="s">
         <v>32</v>
@@ -9113,25 +9095,25 @@
         <v>166</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J123" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K123" s="19" t="s">
         <v>413</v>
       </c>
       <c r="L123" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M123" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N123" s="22" t="s">
         <v>32</v>
@@ -9167,13 +9149,13 @@
         <v>166</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>60</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="J124" s="18">
         <v>10</v>
@@ -9182,10 +9164,10 @@
         <v>415</v>
       </c>
       <c r="L124" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M124" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N124" s="22" t="s">
         <v>32</v>
@@ -9221,7 +9203,7 @@
         <v>166</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H125" s="9" t="s">
         <v>60</v>
@@ -9236,10 +9218,10 @@
         <v>417</v>
       </c>
       <c r="L125" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M125" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N125" s="22" t="s">
         <v>32</v>
@@ -9275,25 +9257,25 @@
         <v>166</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I126" s="9" t="s">
         <v>290</v>
       </c>
       <c r="J126" s="18">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="K126" s="19" t="s">
         <v>419</v>
       </c>
       <c r="L126" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M126" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N126" s="22" t="s">
         <v>32</v>
@@ -9329,25 +9311,25 @@
         <v>166</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>375</v>
+        <v>294</v>
       </c>
       <c r="J127" s="18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K127" s="19" t="s">
         <v>421</v>
       </c>
       <c r="L127" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M127" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N127" s="22" t="s">
         <v>32</v>
@@ -9383,25 +9365,25 @@
         <v>166</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>293</v>
+        <v>71</v>
       </c>
       <c r="J128" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K128" s="19" t="s">
         <v>423</v>
       </c>
       <c r="L128" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M128" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N128" s="22" t="s">
         <v>32</v>
@@ -9437,25 +9419,25 @@
         <v>166</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J129" s="18">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="K129" s="19" t="s">
         <v>425</v>
       </c>
       <c r="L129" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M129" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N129" s="22" t="s">
         <v>32</v>
@@ -9491,25 +9473,25 @@
         <v>166</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>299</v>
+        <v>112</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J130" s="18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K130" s="19" t="s">
         <v>427</v>
       </c>
       <c r="L130" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M130" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N130" s="22" t="s">
         <v>32</v>
@@ -9545,13 +9527,13 @@
         <v>166</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H131" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J131" s="18">
         <v>8</v>
@@ -9560,10 +9542,10 @@
         <v>429</v>
       </c>
       <c r="L131" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M131" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N131" s="22" t="s">
         <v>32</v>
@@ -9599,13 +9581,13 @@
         <v>166</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H132" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="J132" s="18">
         <v>8</v>
@@ -9614,10 +9596,10 @@
         <v>431</v>
       </c>
       <c r="L132" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M132" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N132" s="22" t="s">
         <v>32</v>
@@ -9653,13 +9635,13 @@
         <v>166</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H133" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J133" s="18">
         <v>8</v>
@@ -9668,10 +9650,10 @@
         <v>433</v>
       </c>
       <c r="L133" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M133" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N133" s="22" t="s">
         <v>32</v>
@@ -9707,13 +9689,13 @@
         <v>166</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H134" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="J134" s="18">
         <v>8</v>
@@ -9722,10 +9704,10 @@
         <v>435</v>
       </c>
       <c r="L134" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M134" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N134" s="22" t="s">
         <v>32</v>
@@ -9761,13 +9743,13 @@
         <v>166</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H135" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="J135" s="18">
         <v>8</v>
@@ -9776,10 +9758,10 @@
         <v>437</v>
       </c>
       <c r="L135" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M135" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N135" s="22" t="s">
         <v>32</v>
@@ -9815,25 +9797,25 @@
         <v>166</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J136" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K136" s="19" t="s">
         <v>439</v>
       </c>
       <c r="L136" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M136" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N136" s="22" t="s">
         <v>32</v>
@@ -9869,25 +9851,25 @@
         <v>166</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J137" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K137" s="19" t="s">
         <v>441</v>
       </c>
       <c r="L137" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M137" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N137" s="22" t="s">
         <v>32</v>
@@ -9923,25 +9905,25 @@
         <v>166</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="J138" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K138" s="19" t="s">
         <v>443</v>
       </c>
       <c r="L138" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M138" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N138" s="22" t="s">
         <v>32</v>
@@ -9977,25 +9959,25 @@
         <v>166</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="J139" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K139" s="19" t="s">
         <v>445</v>
       </c>
       <c r="L139" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M139" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N139" s="22" t="s">
         <v>32</v>
@@ -10031,25 +10013,25 @@
         <v>166</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>324</v>
+        <v>35</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="J140" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K140" s="19" t="s">
         <v>447</v>
       </c>
       <c r="L140" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M140" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N140" s="22" t="s">
         <v>32</v>
@@ -10085,25 +10067,25 @@
         <v>166</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="J141" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K141" s="19" t="s">
         <v>449</v>
       </c>
       <c r="L141" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M141" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N141" s="22" t="s">
         <v>32</v>
@@ -10139,25 +10121,25 @@
         <v>166</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
       <c r="J142" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K142" s="19" t="s">
         <v>451</v>
       </c>
       <c r="L142" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M142" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N142" s="22" t="s">
         <v>32</v>
@@ -10193,25 +10175,25 @@
         <v>166</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>223</v>
+        <v>338</v>
       </c>
       <c r="J143" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K143" s="19" t="s">
         <v>453</v>
       </c>
       <c r="L143" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M143" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N143" s="22" t="s">
         <v>32</v>
@@ -10247,25 +10229,25 @@
         <v>166</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>338</v>
+        <v>89</v>
       </c>
       <c r="J144" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K144" s="19" t="s">
         <v>455</v>
       </c>
       <c r="L144" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M144" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N144" s="22" t="s">
         <v>32</v>
@@ -10301,25 +10283,25 @@
         <v>166</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H145" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J145" s="18">
         <v>38</v>
-      </c>
-      <c r="I145" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="J145" s="18">
-        <v>1</v>
       </c>
       <c r="K145" s="19" t="s">
         <v>457</v>
       </c>
       <c r="L145" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M145" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N145" s="22" t="s">
         <v>32</v>
@@ -10355,25 +10337,25 @@
         <v>166</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H146" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J146" s="18">
         <v>38</v>
-      </c>
-      <c r="I146" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="J146" s="18">
-        <v>1</v>
       </c>
       <c r="K146" s="19" t="s">
         <v>459</v>
       </c>
       <c r="L146" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M146" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N146" s="22" t="s">
         <v>32</v>
@@ -10409,25 +10391,25 @@
         <v>166</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J147" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K147" s="19" t="s">
         <v>461</v>
       </c>
       <c r="L147" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M147" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N147" s="22" t="s">
         <v>32</v>
@@ -10463,25 +10445,25 @@
         <v>166</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="J148" s="18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K148" s="19" t="s">
         <v>463</v>
       </c>
       <c r="L148" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M148" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N148" s="22" t="s">
         <v>32</v>
@@ -10517,25 +10499,25 @@
         <v>166</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="J149" s="18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K149" s="19" t="s">
         <v>465</v>
       </c>
       <c r="L149" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M149" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N149" s="22" t="s">
         <v>32</v>
@@ -10571,13 +10553,13 @@
         <v>166</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H150" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="J150" s="18">
         <v>14</v>
@@ -10586,10 +10568,10 @@
         <v>467</v>
       </c>
       <c r="L150" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M150" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N150" s="22" t="s">
         <v>32</v>
@@ -10625,13 +10607,13 @@
         <v>166</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H151" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="J151" s="18">
         <v>14</v>
@@ -10640,10 +10622,10 @@
         <v>469</v>
       </c>
       <c r="L151" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M151" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N151" s="22" t="s">
         <v>32</v>
@@ -10679,13 +10661,13 @@
         <v>166</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H152" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>144</v>
+        <v>358</v>
       </c>
       <c r="J152" s="18">
         <v>14</v>
@@ -10694,10 +10676,10 @@
         <v>471</v>
       </c>
       <c r="L152" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M152" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N152" s="22" t="s">
         <v>32</v>
@@ -10733,13 +10715,13 @@
         <v>166</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H153" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>359</v>
+        <v>134</v>
       </c>
       <c r="J153" s="18">
         <v>14</v>
@@ -10748,10 +10730,10 @@
         <v>473</v>
       </c>
       <c r="L153" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M153" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N153" s="22" t="s">
         <v>32</v>
@@ -10787,25 +10769,25 @@
         <v>166</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="J154" s="18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K154" s="19" t="s">
         <v>475</v>
       </c>
       <c r="L154" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M154" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N154" s="22" t="s">
         <v>32</v>
@@ -10841,25 +10823,25 @@
         <v>166</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>364</v>
+        <v>129</v>
       </c>
       <c r="J155" s="18">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="K155" s="19" t="s">
         <v>477</v>
       </c>
       <c r="L155" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M155" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N155" s="22" t="s">
         <v>32</v>
@@ -10895,25 +10877,25 @@
         <v>166</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="J156" s="18">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K156" s="19" t="s">
         <v>479</v>
       </c>
       <c r="L156" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M156" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N156" s="22" t="s">
         <v>32</v>
@@ -10949,25 +10931,25 @@
         <v>166</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="J157" s="18">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K157" s="19" t="s">
         <v>481</v>
       </c>
       <c r="L157" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M157" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N157" s="22" t="s">
         <v>32</v>
@@ -11003,25 +10985,25 @@
         <v>166</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="J158" s="18">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="K158" s="19" t="s">
         <v>483</v>
       </c>
       <c r="L158" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M158" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N158" s="22" t="s">
         <v>32</v>
@@ -11057,31 +11039,31 @@
         <v>166</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>387</v>
+        <v>485</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="J159" s="18">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K159" s="19" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L159" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M159" s="22" t="s">
-        <v>390</v>
+        <v>487</v>
       </c>
       <c r="N159" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O159" s="20" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P159" s="10" t="s">
         <v>34</v>
@@ -11111,31 +11093,31 @@
         <v>166</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>387</v>
+        <v>485</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="J160" s="18">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K160" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="L160" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="M160" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="L160" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="M160" s="22" t="s">
-        <v>390</v>
-      </c>
       <c r="N160" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O160" s="20" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P160" s="10" t="s">
         <v>34</v>
@@ -11165,31 +11147,31 @@
         <v>166</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>387</v>
+        <v>485</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="J161" s="18">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K161" s="19" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L161" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M161" s="22" t="s">
-        <v>390</v>
+        <v>487</v>
       </c>
       <c r="N161" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O161" s="20" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P161" s="10" t="s">
         <v>34</v>
@@ -11219,25 +11201,25 @@
         <v>166</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="I162" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J162" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K162" s="19" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L162" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M162" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N162" s="22" t="s">
         <v>32</v>
@@ -11273,25 +11255,25 @@
         <v>166</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="I163" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J163" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K163" s="19" t="s">
         <v>495</v>
       </c>
       <c r="L163" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M163" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N163" s="22" t="s">
         <v>32</v>
@@ -11327,25 +11309,25 @@
         <v>166</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="I164" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J164" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K164" s="19" t="s">
         <v>497</v>
       </c>
       <c r="L164" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M164" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N164" s="22" t="s">
         <v>32</v>
@@ -11381,25 +11363,25 @@
         <v>166</v>
       </c>
       <c r="G165" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H165" s="9" t="s">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="I165" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J165" s="18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K165" s="19" t="s">
         <v>499</v>
       </c>
       <c r="L165" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M165" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N165" s="22" t="s">
         <v>32</v>
@@ -11435,25 +11417,25 @@
         <v>166</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="I166" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J166" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K166" s="19" t="s">
         <v>501</v>
       </c>
       <c r="L166" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M166" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N166" s="22" t="s">
         <v>32</v>
@@ -11489,25 +11471,25 @@
         <v>166</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="I167" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J167" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K167" s="19" t="s">
         <v>503</v>
       </c>
       <c r="L167" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M167" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N167" s="22" t="s">
         <v>32</v>
@@ -11543,25 +11525,25 @@
         <v>166</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I168" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J168" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K168" s="19" t="s">
         <v>505</v>
       </c>
       <c r="L168" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M168" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N168" s="22" t="s">
         <v>32</v>
@@ -11597,25 +11579,25 @@
         <v>166</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="I169" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J169" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K169" s="19" t="s">
         <v>507</v>
       </c>
       <c r="L169" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M169" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N169" s="22" t="s">
         <v>32</v>
@@ -11651,25 +11633,25 @@
         <v>166</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="I170" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J170" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K170" s="19" t="s">
         <v>509</v>
       </c>
       <c r="L170" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M170" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N170" s="22" t="s">
         <v>32</v>
@@ -11705,25 +11687,25 @@
         <v>166</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="I171" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J171" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K171" s="19" t="s">
         <v>511</v>
       </c>
       <c r="L171" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M171" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N171" s="22" t="s">
         <v>32</v>
@@ -11759,10 +11741,10 @@
         <v>166</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>324</v>
+        <v>38</v>
       </c>
       <c r="I172" s="9" t="s">
         <v>28</v>
@@ -11774,10 +11756,10 @@
         <v>513</v>
       </c>
       <c r="L172" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M172" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N172" s="22" t="s">
         <v>32</v>
@@ -11813,10 +11795,10 @@
         <v>166</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>331</v>
+        <v>115</v>
       </c>
       <c r="I173" s="9" t="s">
         <v>28</v>
@@ -11828,10 +11810,10 @@
         <v>515</v>
       </c>
       <c r="L173" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M173" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N173" s="22" t="s">
         <v>32</v>
@@ -11867,25 +11849,25 @@
         <v>166</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I174" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J174" s="18">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K174" s="19" t="s">
         <v>517</v>
       </c>
       <c r="L174" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M174" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N174" s="22" t="s">
         <v>32</v>
@@ -11921,25 +11903,25 @@
         <v>166</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="I175" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J175" s="18">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K175" s="19" t="s">
         <v>519</v>
       </c>
       <c r="L175" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M175" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N175" s="22" t="s">
         <v>32</v>
@@ -11966,7 +11948,7 @@
         <v>139</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>57</v>
@@ -11975,31 +11957,31 @@
         <v>166</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="J176" s="18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K176" s="19" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L176" s="22" t="s">
-        <v>389</v>
+        <v>523</v>
       </c>
       <c r="M176" s="22" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="N176" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O176" s="20" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="P176" s="10" t="s">
         <v>34</v>
@@ -12020,7 +12002,7 @@
         <v>139</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>57</v>
@@ -12029,31 +12011,31 @@
         <v>166</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="J177" s="18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K177" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="L177" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="L177" s="22" t="s">
-        <v>389</v>
-      </c>
       <c r="M177" s="22" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="N177" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O177" s="20" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="P177" s="10" t="s">
         <v>34</v>
@@ -12074,7 +12056,7 @@
         <v>139</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="E178" s="10" t="s">
         <v>57</v>
@@ -12083,31 +12065,31 @@
         <v>166</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="J178" s="18">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K178" s="19" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L178" s="22" t="s">
-        <v>389</v>
+        <v>523</v>
       </c>
       <c r="M178" s="22" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="N178" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O178" s="20" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="P178" s="10" t="s">
         <v>34</v>
@@ -12137,25 +12119,25 @@
         <v>166</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J179" s="18">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K179" s="19" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L179" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M179" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N179" s="22" t="s">
         <v>32</v>
@@ -12191,25 +12173,25 @@
         <v>166</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="J180" s="18">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K180" s="19" t="s">
         <v>532</v>
       </c>
       <c r="L180" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M180" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N180" s="22" t="s">
         <v>32</v>
@@ -12245,25 +12227,25 @@
         <v>166</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="J181" s="18">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K181" s="19" t="s">
         <v>534</v>
       </c>
       <c r="L181" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M181" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N181" s="22" t="s">
         <v>32</v>
@@ -12299,25 +12281,25 @@
         <v>166</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J182" s="18">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K182" s="19" t="s">
         <v>536</v>
       </c>
       <c r="L182" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M182" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N182" s="22" t="s">
         <v>32</v>
@@ -12353,25 +12335,25 @@
         <v>166</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="J183" s="18">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K183" s="19" t="s">
         <v>538</v>
       </c>
       <c r="L183" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M183" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N183" s="22" t="s">
         <v>32</v>
@@ -12407,25 +12389,25 @@
         <v>166</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>265</v>
+        <v>400</v>
       </c>
       <c r="J184" s="18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K184" s="19" t="s">
         <v>540</v>
       </c>
       <c r="L184" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M184" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N184" s="22" t="s">
         <v>32</v>
@@ -12461,25 +12443,25 @@
         <v>166</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="I185" s="9" t="s">
         <v>269</v>
       </c>
       <c r="J185" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K185" s="19" t="s">
         <v>542</v>
       </c>
       <c r="L185" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M185" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N185" s="22" t="s">
         <v>32</v>
@@ -12515,25 +12497,25 @@
         <v>166</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I186" s="9" t="s">
         <v>272</v>
       </c>
       <c r="J186" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K186" s="19" t="s">
         <v>544</v>
       </c>
       <c r="L186" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M186" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N186" s="22" t="s">
         <v>32</v>
@@ -12569,13 +12551,13 @@
         <v>166</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>406</v>
+        <v>275</v>
       </c>
       <c r="J187" s="18">
         <v>6</v>
@@ -12584,10 +12566,10 @@
         <v>546</v>
       </c>
       <c r="L187" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M187" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N187" s="22" t="s">
         <v>32</v>
@@ -12623,25 +12605,25 @@
         <v>166</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J188" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K188" s="19" t="s">
         <v>548</v>
       </c>
       <c r="L188" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M188" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N188" s="22" t="s">
         <v>32</v>
@@ -12677,25 +12659,25 @@
         <v>166</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J189" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K189" s="19" t="s">
         <v>550</v>
       </c>
       <c r="L189" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M189" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N189" s="22" t="s">
         <v>32</v>
@@ -12731,25 +12713,25 @@
         <v>166</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J190" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K190" s="19" t="s">
         <v>552</v>
       </c>
       <c r="L190" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M190" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N190" s="22" t="s">
         <v>32</v>
@@ -12785,13 +12767,13 @@
         <v>166</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>60</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="J191" s="18">
         <v>10</v>
@@ -12800,10 +12782,10 @@
         <v>554</v>
       </c>
       <c r="L191" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M191" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N191" s="22" t="s">
         <v>32</v>
@@ -12839,7 +12821,7 @@
         <v>166</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H192" s="9" t="s">
         <v>60</v>
@@ -12854,10 +12836,10 @@
         <v>556</v>
       </c>
       <c r="L192" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M192" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N192" s="22" t="s">
         <v>32</v>
@@ -12893,25 +12875,25 @@
         <v>166</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H193" s="9" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I193" s="9" t="s">
         <v>290</v>
       </c>
       <c r="J193" s="18">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="K193" s="19" t="s">
         <v>558</v>
       </c>
       <c r="L193" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M193" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N193" s="22" t="s">
         <v>32</v>
@@ -12947,25 +12929,25 @@
         <v>166</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="I194" s="9" t="s">
-        <v>375</v>
+        <v>294</v>
       </c>
       <c r="J194" s="18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K194" s="19" t="s">
         <v>560</v>
       </c>
       <c r="L194" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M194" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N194" s="22" t="s">
         <v>32</v>
@@ -13001,25 +12983,25 @@
         <v>166</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I195" s="9" t="s">
-        <v>293</v>
+        <v>71</v>
       </c>
       <c r="J195" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K195" s="19" t="s">
         <v>562</v>
       </c>
       <c r="L195" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M195" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N195" s="22" t="s">
         <v>32</v>
@@ -13055,25 +13037,25 @@
         <v>166</v>
       </c>
       <c r="G196" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="I196" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J196" s="18">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="K196" s="19" t="s">
         <v>564</v>
       </c>
       <c r="L196" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N196" s="22" t="s">
         <v>32</v>
@@ -13109,25 +13091,25 @@
         <v>166</v>
       </c>
       <c r="G197" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>299</v>
+        <v>112</v>
       </c>
       <c r="I197" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J197" s="18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K197" s="19" t="s">
         <v>566</v>
       </c>
       <c r="L197" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M197" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N197" s="22" t="s">
         <v>32</v>
@@ -13163,13 +13145,13 @@
         <v>166</v>
       </c>
       <c r="G198" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H198" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I198" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J198" s="18">
         <v>8</v>
@@ -13178,10 +13160,10 @@
         <v>568</v>
       </c>
       <c r="L198" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M198" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N198" s="22" t="s">
         <v>32</v>
@@ -13217,13 +13199,13 @@
         <v>166</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H199" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I199" s="9" t="s">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="J199" s="18">
         <v>8</v>
@@ -13232,10 +13214,10 @@
         <v>570</v>
       </c>
       <c r="L199" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M199" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N199" s="22" t="s">
         <v>32</v>
@@ -13271,13 +13253,13 @@
         <v>166</v>
       </c>
       <c r="G200" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H200" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I200" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J200" s="18">
         <v>8</v>
@@ -13286,10 +13268,10 @@
         <v>572</v>
       </c>
       <c r="L200" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M200" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N200" s="22" t="s">
         <v>32</v>
@@ -13325,13 +13307,13 @@
         <v>166</v>
       </c>
       <c r="G201" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H201" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I201" s="9" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="J201" s="18">
         <v>8</v>
@@ -13340,10 +13322,10 @@
         <v>574</v>
       </c>
       <c r="L201" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M201" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N201" s="22" t="s">
         <v>32</v>
@@ -13379,13 +13361,13 @@
         <v>166</v>
       </c>
       <c r="G202" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H202" s="9" t="s">
         <v>112</v>
       </c>
       <c r="I202" s="9" t="s">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="J202" s="18">
         <v>8</v>
@@ -13394,10 +13376,10 @@
         <v>576</v>
       </c>
       <c r="L202" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M202" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N202" s="22" t="s">
         <v>32</v>
@@ -13433,25 +13415,25 @@
         <v>166</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H203" s="9" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="I203" s="9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J203" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K203" s="19" t="s">
         <v>578</v>
       </c>
       <c r="L203" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M203" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N203" s="22" t="s">
         <v>32</v>
@@ -13487,25 +13469,25 @@
         <v>166</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H204" s="9" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="I204" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J204" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K204" s="19" t="s">
         <v>580</v>
       </c>
       <c r="L204" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M204" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N204" s="22" t="s">
         <v>32</v>
@@ -13541,25 +13523,25 @@
         <v>166</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>112</v>
+        <v>325</v>
       </c>
       <c r="I205" s="9" t="s">
-        <v>321</v>
+        <v>82</v>
       </c>
       <c r="J205" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K205" s="19" t="s">
         <v>582</v>
       </c>
       <c r="L205" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M205" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N205" s="22" t="s">
         <v>32</v>
@@ -13595,25 +13577,25 @@
         <v>166</v>
       </c>
       <c r="G206" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H206" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I206" s="9" t="s">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="J206" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K206" s="19" t="s">
         <v>584</v>
       </c>
       <c r="L206" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M206" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N206" s="22" t="s">
         <v>32</v>
@@ -13649,25 +13631,25 @@
         <v>166</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H207" s="9" t="s">
-        <v>324</v>
+        <v>35</v>
       </c>
       <c r="I207" s="9" t="s">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="J207" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K207" s="19" t="s">
         <v>586</v>
       </c>
       <c r="L207" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M207" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N207" s="22" t="s">
         <v>32</v>
@@ -13703,25 +13685,25 @@
         <v>166</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H208" s="9" t="s">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="I208" s="9" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="J208" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K208" s="19" t="s">
         <v>588</v>
       </c>
       <c r="L208" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M208" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N208" s="22" t="s">
         <v>32</v>
@@ -13757,25 +13739,25 @@
         <v>166</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H209" s="9" t="s">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="I209" s="9" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
       <c r="J209" s="18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K209" s="19" t="s">
         <v>590</v>
       </c>
       <c r="L209" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M209" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N209" s="22" t="s">
         <v>32</v>
@@ -13811,25 +13793,25 @@
         <v>166</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H210" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I210" s="9" t="s">
-        <v>223</v>
+        <v>338</v>
       </c>
       <c r="J210" s="18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K210" s="19" t="s">
         <v>592</v>
       </c>
       <c r="L210" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M210" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N210" s="22" t="s">
         <v>32</v>
@@ -13865,25 +13847,25 @@
         <v>166</v>
       </c>
       <c r="G211" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H211" s="9" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="I211" s="9" t="s">
-        <v>338</v>
+        <v>89</v>
       </c>
       <c r="J211" s="18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K211" s="19" t="s">
         <v>594</v>
       </c>
       <c r="L211" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M211" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N211" s="22" t="s">
         <v>32</v>
@@ -13919,25 +13901,25 @@
         <v>166</v>
       </c>
       <c r="G212" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H212" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I212" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J212" s="18">
         <v>38</v>
-      </c>
-      <c r="I212" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="J212" s="18">
-        <v>1</v>
       </c>
       <c r="K212" s="19" t="s">
         <v>596</v>
       </c>
       <c r="L212" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M212" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N212" s="22" t="s">
         <v>32</v>
@@ -13973,25 +13955,25 @@
         <v>166</v>
       </c>
       <c r="G213" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H213" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I213" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J213" s="18">
         <v>38</v>
-      </c>
-      <c r="I213" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="J213" s="18">
-        <v>1</v>
       </c>
       <c r="K213" s="19" t="s">
         <v>598</v>
       </c>
       <c r="L213" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M213" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N213" s="22" t="s">
         <v>32</v>
@@ -14027,25 +14009,25 @@
         <v>166</v>
       </c>
       <c r="G214" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H214" s="9" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="I214" s="9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J214" s="18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K214" s="19" t="s">
         <v>600</v>
       </c>
       <c r="L214" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M214" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N214" s="22" t="s">
         <v>32</v>
@@ -14081,25 +14063,25 @@
         <v>166</v>
       </c>
       <c r="G215" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H215" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I215" s="9" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="J215" s="18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K215" s="19" t="s">
         <v>602</v>
       </c>
       <c r="L215" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M215" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N215" s="22" t="s">
         <v>32</v>
@@ -14135,25 +14117,25 @@
         <v>166</v>
       </c>
       <c r="G216" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H216" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I216" s="9" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="J216" s="18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K216" s="19" t="s">
         <v>604</v>
       </c>
       <c r="L216" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M216" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N216" s="22" t="s">
         <v>32</v>
@@ -14189,13 +14171,13 @@
         <v>166</v>
       </c>
       <c r="G217" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H217" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I217" s="9" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="J217" s="18">
         <v>14</v>
@@ -14204,10 +14186,10 @@
         <v>606</v>
       </c>
       <c r="L217" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M217" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N217" s="22" t="s">
         <v>32</v>
@@ -14243,13 +14225,13 @@
         <v>166</v>
       </c>
       <c r="G218" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H218" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I218" s="9" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="J218" s="18">
         <v>14</v>
@@ -14258,10 +14240,10 @@
         <v>608</v>
       </c>
       <c r="L218" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M218" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N218" s="22" t="s">
         <v>32</v>
@@ -14297,13 +14279,13 @@
         <v>166</v>
       </c>
       <c r="G219" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H219" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I219" s="9" t="s">
-        <v>144</v>
+        <v>358</v>
       </c>
       <c r="J219" s="18">
         <v>14</v>
@@ -14312,10 +14294,10 @@
         <v>610</v>
       </c>
       <c r="L219" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M219" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N219" s="22" t="s">
         <v>32</v>
@@ -14351,13 +14333,13 @@
         <v>166</v>
       </c>
       <c r="G220" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H220" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I220" s="9" t="s">
-        <v>359</v>
+        <v>134</v>
       </c>
       <c r="J220" s="18">
         <v>14</v>
@@ -14366,10 +14348,10 @@
         <v>612</v>
       </c>
       <c r="L220" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M220" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N220" s="22" t="s">
         <v>32</v>
@@ -14405,25 +14387,25 @@
         <v>166</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H221" s="9" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="I221" s="9" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="J221" s="18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K221" s="19" t="s">
         <v>614</v>
       </c>
       <c r="L221" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M221" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N221" s="22" t="s">
         <v>32</v>
@@ -14459,25 +14441,25 @@
         <v>166</v>
       </c>
       <c r="G222" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="I222" s="9" t="s">
-        <v>364</v>
+        <v>129</v>
       </c>
       <c r="J222" s="18">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="K222" s="19" t="s">
         <v>616</v>
       </c>
       <c r="L222" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M222" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N222" s="22" t="s">
         <v>32</v>
@@ -14513,25 +14495,25 @@
         <v>166</v>
       </c>
       <c r="G223" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H223" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I223" s="9" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="J223" s="18">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K223" s="19" t="s">
         <v>618</v>
       </c>
       <c r="L223" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M223" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N223" s="22" t="s">
         <v>32</v>
@@ -14567,25 +14549,25 @@
         <v>166</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H224" s="9" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="I224" s="9" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="J224" s="18">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K224" s="19" t="s">
         <v>620</v>
       </c>
       <c r="L224" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M224" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N224" s="22" t="s">
         <v>32</v>
@@ -14621,25 +14603,25 @@
         <v>166</v>
       </c>
       <c r="G225" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H225" s="9" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="I225" s="9" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="J225" s="18">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="K225" s="19" t="s">
         <v>622</v>
       </c>
       <c r="L225" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M225" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="N225" s="22" t="s">
         <v>32</v>
@@ -14666,7 +14648,7 @@
         <v>139</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E226" s="10" t="s">
         <v>57</v>
@@ -14675,31 +14657,31 @@
         <v>166</v>
       </c>
       <c r="G226" s="9" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="H226" s="9" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I226" s="9" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="J226" s="18">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K226" s="19" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L226" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M226" s="22" t="s">
-        <v>530</v>
+        <v>626</v>
       </c>
       <c r="N226" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O226" s="20" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="P226" s="10" t="s">
         <v>34</v>
@@ -14720,7 +14702,7 @@
         <v>139</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E227" s="10" t="s">
         <v>57</v>
@@ -14729,31 +14711,31 @@
         <v>166</v>
       </c>
       <c r="G227" s="9" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="H227" s="9" t="s">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="I227" s="9" t="s">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="J227" s="18">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="K227" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="L227" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="M227" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="L227" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="M227" s="22" t="s">
-        <v>530</v>
-      </c>
       <c r="N227" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O227" s="20" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="P227" s="10" t="s">
         <v>34</v>
@@ -14774,7 +14756,7 @@
         <v>139</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E228" s="10" t="s">
         <v>57</v>
@@ -14783,31 +14765,31 @@
         <v>166</v>
       </c>
       <c r="G228" s="9" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="H228" s="9" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I228" s="9" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="J228" s="18">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K228" s="19" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="L228" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M228" s="22" t="s">
-        <v>530</v>
+        <v>626</v>
       </c>
       <c r="N228" s="22" t="s">
         <v>32</v>
       </c>
       <c r="O228" s="20" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="P228" s="10" t="s">
         <v>34</v>
@@ -14837,25 +14819,25 @@
         <v>166</v>
       </c>
       <c r="G229" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H229" s="9" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="I229" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J229" s="18">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="K229" s="19" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L229" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M229" s="22" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N229" s="22" t="s">
         <v>32</v>
@@ -14891,25 +14873,25 @@
         <v>166</v>
       </c>
       <c r="G230" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H230" s="9" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="I230" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J230" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K230" s="19" t="s">
         <v>634</v>
       </c>
       <c r="L230" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M230" s="22" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N230" s="22" t="s">
         <v>32</v>
@@ -14945,25 +14927,25 @@
         <v>166</v>
       </c>
       <c r="G231" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H231" s="9" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="I231" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J231" s="18">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="K231" s="19" t="s">
         <v>636</v>
       </c>
       <c r="L231" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M231" s="22" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N231" s="22" t="s">
         <v>32</v>
@@ -14999,25 +14981,25 @@
         <v>166</v>
       </c>
       <c r="G232" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H232" s="9" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="I232" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J232" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K232" s="19" t="s">
         <v>638</v>
       </c>
       <c r="L232" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M232" s="22" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N232" s="22" t="s">
         <v>32</v>
@@ -15053,25 +15035,25 @@
         <v>166</v>
       </c>
       <c r="G233" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H233" s="9" t="s">
-        <v>324</v>
+        <v>81</v>
       </c>
       <c r="I233" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J233" s="18">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="K233" s="19" t="s">
         <v>640</v>
       </c>
       <c r="L233" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M233" s="22" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N233" s="22" t="s">
         <v>32</v>
@@ -15107,25 +15089,25 @@
         <v>166</v>
       </c>
       <c r="G234" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H234" s="9" t="s">
-        <v>331</v>
+        <v>85</v>
       </c>
       <c r="I234" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J234" s="18">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="K234" s="19" t="s">
         <v>642</v>
       </c>
       <c r="L234" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M234" s="22" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N234" s="22" t="s">
         <v>32</v>
@@ -15140,168 +15122,6 @@
       <c r="R234" s="17"/>
       <c r="S234" s="17"/>
       <c r="T234" s="16"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B235" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D235" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E235" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F235" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G235" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="H235" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I235" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J235" s="18">
-        <v>1</v>
-      </c>
-      <c r="K235" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="L235" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="M235" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="N235" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O235" s="20" t="s">
-        <v>645</v>
-      </c>
-      <c r="P235" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q235" s="19"/>
-      <c r="R235" s="17"/>
-      <c r="S235" s="17"/>
-      <c r="T235" s="16"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B236" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D236" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E236" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F236" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G236" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="H236" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I236" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J236" s="18">
-        <v>52</v>
-      </c>
-      <c r="K236" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="L236" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="M236" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="N236" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O236" s="20" t="s">
-        <v>647</v>
-      </c>
-      <c r="P236" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q236" s="19"/>
-      <c r="R236" s="17"/>
-      <c r="S236" s="17"/>
-      <c r="T236" s="16"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B237" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D237" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E237" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F237" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="G237" s="9" t="s">
-        <v>630</v>
-      </c>
-      <c r="H237" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I237" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J237" s="18">
-        <v>52</v>
-      </c>
-      <c r="K237" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="L237" s="22" t="s">
-        <v>529</v>
-      </c>
-      <c r="M237" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="N237" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O237" s="20" t="s">
-        <v>649</v>
-      </c>
-      <c r="P237" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q237" s="19"/>
-      <c r="R237" s="17"/>
-      <c r="S237" s="17"/>
-      <c r="T237" s="16"/>
     </row>
   </sheetData>
   <pageSetup orientation="landscape" paperSize="9"/>
